--- a/Notas.xlsx
+++ b/Notas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Daniel\Desktop\(Udemy) Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Daniel\Desktop\GitHub\Udemy-Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E559B0-280D-42D8-BC16-E94B153CDBD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF3AC38F-A8C6-4891-8266-2EE2E852B0B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{9AA41B25-E233-4297-AEE4-9105559EC584}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>Sección 2: Fórmulas 101</t>
   </si>
@@ -160,6 +160,30 @@
   </si>
   <si>
     <t>Sección 3: Operadores Lógicos</t>
+  </si>
+  <si>
+    <t>Función SI</t>
+  </si>
+  <si>
+    <t>Función SI Anidada</t>
+  </si>
+  <si>
+    <t>Función Y</t>
+  </si>
+  <si>
+    <t>Función O</t>
+  </si>
+  <si>
+    <t>Función NO</t>
+  </si>
+  <si>
+    <t>Funciones ES</t>
+  </si>
+  <si>
+    <t>ESBLANCO, ESNUMERO, ESTEXTO,ESERROR, ESPAR, ESIMPAR, etc</t>
+  </si>
+  <si>
+    <t>Sección 4:</t>
   </si>
 </sst>
 </file>
@@ -295,16 +319,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -317,6 +339,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -631,10 +654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A0D23AE-AC8A-462F-B95D-7BE995AE01E7}">
-  <dimension ref="B1:N30"/>
+  <dimension ref="B1:U30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -642,305 +665,303 @@
     <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="12" t="s">
+    <row r="1" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="14"/>
-      <c r="I2" s="12" t="s">
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="12"/>
+      <c r="I2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="14"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="12"/>
+      <c r="P2" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="12"/>
+    </row>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="G3" s="2"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="2"/>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="G4" s="2"/>
+      <c r="I4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="2"/>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="G5" s="2"/>
+      <c r="I5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="2"/>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
-      <c r="C6" s="2" t="s">
+      <c r="C6" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="G6" s="2"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="2"/>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2" t="s">
+      <c r="D7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="G7" s="2"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2" t="s">
+      <c r="D8" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="G8" s="2"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="2"/>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2" t="s">
+      <c r="D9" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="G9" s="2"/>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="2"/>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
-      <c r="C10" s="2" t="s">
+      <c r="C10" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="G10" s="2"/>
+      <c r="I10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="2"/>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2" t="s">
+      <c r="D11" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="G11" s="2"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="2"/>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2" t="s">
+      <c r="D12" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="G12" s="2"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="9"/>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
-      <c r="C13" s="2" t="s">
+      <c r="C13" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2" t="s">
+      <c r="D14" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2" t="s">
+      <c r="D15" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2" t="s">
+      <c r="D16" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="3"/>
+      <c r="G16" s="2"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="3"/>
+      <c r="G17" s="2"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="3"/>
+      <c r="G18" s="2"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
-      <c r="C19" s="2" t="s">
+      <c r="C19" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="3"/>
+      <c r="G19" s="2"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
-      <c r="C20" s="2" t="s">
+      <c r="C20" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="3"/>
+      <c r="G20" s="2"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="3"/>
+      <c r="G21" s="2"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="3"/>
+      <c r="G22" s="2"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
-      <c r="C23" s="2" t="s">
+      <c r="C23" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="3"/>
+      <c r="G23" s="2"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="3"/>
+      <c r="G24" s="2"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
-      <c r="C25" s="6" t="s">
+      <c r="C25" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="3"/>
+      <c r="G25" s="2"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="3"/>
+      <c r="G26" s="2"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="3"/>
+      <c r="E27" s="6"/>
+      <c r="G27" s="2"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="3"/>
+      <c r="G28" s="2"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="3"/>
+      <c r="G29" s="2"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="9"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="11"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="I2:N2"/>
+    <mergeCell ref="P2:U2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Notas.xlsx
+++ b/Notas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Daniel\Desktop\GitHub\Udemy-Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF3AC38F-A8C6-4891-8266-2EE2E852B0B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E4866F-2D8C-4ADD-914C-0E06FAAAC814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{9AA41B25-E233-4297-AEE4-9105559EC584}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="66">
   <si>
     <t>Sección 2: Fórmulas 101</t>
   </si>
@@ -174,16 +174,67 @@
     <t>Función O</t>
   </si>
   <si>
-    <t>Función NO</t>
-  </si>
-  <si>
     <t>Funciones ES</t>
   </si>
   <si>
     <t>ESBLANCO, ESNUMERO, ESTEXTO,ESERROR, ESPAR, ESIMPAR, etc</t>
   </si>
   <si>
-    <t>Sección 4:</t>
+    <t>Función NO (&lt;&gt;)</t>
+  </si>
+  <si>
+    <t>Sección 4: Funciones estadísticas</t>
+  </si>
+  <si>
+    <t>Funciones estadísticas</t>
+  </si>
+  <si>
+    <t>Función JERARQUIA</t>
+  </si>
+  <si>
+    <t>Función K.ESIMO.MAYOR</t>
+  </si>
+  <si>
+    <t>Función K.ESIMO.MENOR</t>
+  </si>
+  <si>
+    <t>Función RANGO.PERCENTIL</t>
+  </si>
+  <si>
+    <t>Función ALEATORIO</t>
+  </si>
+  <si>
+    <t>Función ALEATORIO.ENTRE</t>
+  </si>
+  <si>
+    <t>Función SUMAPRODUCTO</t>
+  </si>
+  <si>
+    <t>Usando filtros</t>
+  </si>
+  <si>
+    <t>Cambiar "," por "*"</t>
+  </si>
+  <si>
+    <t>Función CONTAR.SI</t>
+  </si>
+  <si>
+    <t>Función CONTAR.SI.CONJUNTO</t>
+  </si>
+  <si>
+    <t>Función SUMAR.SI</t>
+  </si>
+  <si>
+    <t>Función SUMAR.SI.CONJUNTO</t>
+  </si>
+  <si>
+    <t>Función PROMEDIO.SI</t>
+  </si>
+  <si>
+    <t>Función PROMEDIO.SI.CONJUNTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para usar "&lt;" o "&gt;" se tiene que poner "&lt;200" </t>
   </si>
 </sst>
 </file>
@@ -319,12 +370,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -339,7 +388,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -657,7 +707,7 @@
   <dimension ref="B1:U30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="U3" sqref="U3"/>
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -667,39 +717,35 @@
   <sheetData>
     <row r="1" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="12"/>
-      <c r="I2" s="10" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="10"/>
+      <c r="I2" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="12"/>
-      <c r="P2" s="10" t="s">
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="10"/>
+      <c r="P2" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="12"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="10"/>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="G3" s="2"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
       <c r="N3" s="2"/>
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.25">
@@ -710,11 +756,10 @@
       <c r="I4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
       <c r="N4" s="2"/>
+      <c r="P4" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
@@ -724,11 +769,10 @@
       <c r="I5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
       <c r="N5" s="2"/>
+      <c r="P5" s="11" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
@@ -737,13 +781,13 @@
       </c>
       <c r="G6" s="2"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="13" t="s">
+      <c r="J6" t="s">
         <v>44</v>
       </c>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
       <c r="N6" s="2"/>
+      <c r="P6" s="11" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
@@ -752,13 +796,13 @@
       </c>
       <c r="G7" s="2"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="13" t="s">
+      <c r="J7" t="s">
         <v>43</v>
       </c>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
       <c r="N7" s="2"/>
+      <c r="P7" s="11" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
@@ -767,13 +811,13 @@
       </c>
       <c r="G8" s="2"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
+      <c r="J8" t="s">
+        <v>47</v>
+      </c>
       <c r="N8" s="2"/>
+      <c r="P8" s="11" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
@@ -784,11 +828,10 @@
       <c r="I9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
       <c r="N9" s="2"/>
+      <c r="P9" s="11" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
@@ -796,14 +839,13 @@
         <v>4</v>
       </c>
       <c r="G10" s="2"/>
-      <c r="I10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
+      <c r="I10" s="12" t="s">
+        <v>45</v>
+      </c>
       <c r="N10" s="2"/>
+      <c r="P10" s="11" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
@@ -812,13 +854,13 @@
       </c>
       <c r="G11" s="2"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
+      <c r="J11" t="s">
+        <v>46</v>
+      </c>
       <c r="N11" s="2"/>
+      <c r="P11" s="11" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
@@ -826,12 +868,15 @@
         <v>6</v>
       </c>
       <c r="G12" s="2"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="9"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="7"/>
+      <c r="Q12" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
@@ -839,6 +884,9 @@
         <v>7</v>
       </c>
       <c r="G13" s="2"/>
+      <c r="R13" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
@@ -846,6 +894,9 @@
         <v>8</v>
       </c>
       <c r="G14" s="2"/>
+      <c r="P14" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
@@ -853,6 +904,9 @@
         <v>9</v>
       </c>
       <c r="G15" s="2"/>
+      <c r="Q15" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
@@ -860,102 +914,117 @@
         <v>10</v>
       </c>
       <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="s">
+      <c r="R16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B17" s="12" t="s">
         <v>14</v>
       </c>
       <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="P17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="Q18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" t="s">
         <v>16</v>
       </c>
       <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="P19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" t="s">
         <v>19</v>
       </c>
       <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="Q20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="11" t="s">
         <v>18</v>
       </c>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="11" t="s">
         <v>17</v>
       </c>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" t="s">
         <v>20</v>
       </c>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="3" t="s">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B24" s="12" t="s">
         <v>21</v>
       </c>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" t="s">
         <v>35</v>
       </c>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>36</v>
       </c>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="6"/>
+      <c r="E27" s="4"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="3" t="s">
         <v>38</v>
       </c>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="3" t="s">
         <v>39</v>
       </c>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="7"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="9"/>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B30" s="5"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Notas.xlsx
+++ b/Notas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Daniel\Desktop\GitHub\Udemy-Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E4866F-2D8C-4ADD-914C-0E06FAAAC814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECAE7EB8-AE57-4872-A089-F95D3150286D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{9AA41B25-E233-4297-AEE4-9105559EC584}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{9AA41B25-E233-4297-AEE4-9105559EC584}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -36,8 +36,76 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Carlos Daniel</author>
+  </authors>
+  <commentList>
+    <comment ref="P11" authorId="0" shapeId="0" xr:uid="{DB233F56-A94B-4AFD-A93B-3D01DFA6A7ED}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Carlos Daniel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Si en el argumento de la función sólo se mete una matriz, entonces hace la SUMAPRODUCTO de esa matriz consigomisma</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P25" authorId="0" shapeId="0" xr:uid="{F1F86033-143A-4921-B651-D0CC07F5781B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Carlos Daniel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Cuenta el número de celdas que </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>CONTIENEN NUMEROS</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="70">
   <si>
     <t>Sección 2: Fórmulas 101</t>
   </si>
@@ -105,45 +173,6 @@
     <t>Validación de datos</t>
   </si>
   <si>
-    <t>Meses</t>
-  </si>
-  <si>
-    <t>ene</t>
-  </si>
-  <si>
-    <t>feb</t>
-  </si>
-  <si>
-    <t>mar</t>
-  </si>
-  <si>
-    <t>abr</t>
-  </si>
-  <si>
-    <t>may</t>
-  </si>
-  <si>
-    <t>jun</t>
-  </si>
-  <si>
-    <t>jul</t>
-  </si>
-  <si>
-    <t>ago</t>
-  </si>
-  <si>
-    <t>sep</t>
-  </si>
-  <si>
-    <t>oct</t>
-  </si>
-  <si>
-    <t>nov</t>
-  </si>
-  <si>
-    <t>dic</t>
-  </si>
-  <si>
     <t>Datos &gt; Validación de datos</t>
   </si>
   <si>
@@ -235,13 +264,179 @@
   </si>
   <si>
     <t xml:space="preserve">Para usar "&lt;" o "&gt;" se tiene que poner "&lt;200" </t>
+  </si>
+  <si>
+    <t>Quitar duplicados</t>
+  </si>
+  <si>
+    <t>Datos &gt; Herramientas de datos &gt; Quitar duplicados</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">+ Para saber </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CUÁNTOS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> valores se repiten en dos listas (Lista1 y Lista2) se podría hacer de la siguiente forma</t>
+    </r>
+  </si>
+  <si>
+    <t>=SUMAPRODUCTO(   CONTAR.SI(  Lista1,Lista2  )   )</t>
+  </si>
+  <si>
+    <t>La función CONTAR.SI creará un vector de valores 0 y 1 donde se especifica si se repite el valor o no</t>
+  </si>
+  <si>
+    <t>La función SUMAPRODUCTO, cuando solo se especifica una matriz, hace la SUMAPRODUCTO de esa</t>
+  </si>
+  <si>
+    <t>matriz consigo misma</t>
+  </si>
+  <si>
+    <t>Función FILAS</t>
+  </si>
+  <si>
+    <t>Función CONTAR.BLANCO</t>
+  </si>
+  <si>
+    <t>Función CONTAR</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">+ La función </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">CONTAR() </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cuenta el número de celdas en un rango que contienen valores NUMÉRICOS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">De tal forma que, si quisieramos saber cuántos valores </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NUMÉRICOS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> tenemos en un rango de celdas</t>
+    </r>
+  </si>
+  <si>
+    <t>esta función resulta muy útil. Esto de valores numéricos se refiere a cuando se establece que en la celda</t>
+  </si>
+  <si>
+    <t>tenga valor numérico (Inicio &gt; Número)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">+ La expresión </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"*" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>es un comodín, signifca que el texto puede contener cualquier número de caracteres</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">pero debe ser </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TEXTO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, no números</t>
+    </r>
+  </si>
+  <si>
+    <t>Se podría usar pensándolo como en regex</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,6 +458,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -370,7 +578,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -388,8 +596,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -703,11 +909,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A0D23AE-AC8A-462F-B95D-7BE995AE01E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A0D23AE-AC8A-462F-B95D-7BE995AE01E7}">
   <dimension ref="B1:U30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+    <sheetView topLeftCell="H10" workbookViewId="0">
+      <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -726,7 +932,7 @@
       <c r="F2" s="9"/>
       <c r="G2" s="10"/>
       <c r="I2" s="8" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
@@ -734,7 +940,7 @@
       <c r="M2" s="9"/>
       <c r="N2" s="10"/>
       <c r="P2" s="8" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="Q2" s="9"/>
       <c r="R2" s="9"/>
@@ -754,11 +960,11 @@
       </c>
       <c r="G4" s="2"/>
       <c r="I4" s="1" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="N4" s="2"/>
       <c r="P4" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.25">
@@ -767,11 +973,11 @@
       </c>
       <c r="G5" s="2"/>
       <c r="I5" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="N5" s="2"/>
-      <c r="P5" s="11" t="s">
-        <v>50</v>
+      <c r="P5" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.25">
@@ -782,11 +988,11 @@
       <c r="G6" s="2"/>
       <c r="I6" s="1"/>
       <c r="J6" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="N6" s="2"/>
-      <c r="P6" s="11" t="s">
-        <v>51</v>
+      <c r="P6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.25">
@@ -797,11 +1003,11 @@
       <c r="G7" s="2"/>
       <c r="I7" s="1"/>
       <c r="J7" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="N7" s="2"/>
-      <c r="P7" s="11" t="s">
-        <v>52</v>
+      <c r="P7" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.25">
@@ -812,11 +1018,11 @@
       <c r="G8" s="2"/>
       <c r="I8" s="1"/>
       <c r="J8" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="N8" s="2"/>
-      <c r="P8" s="11" t="s">
-        <v>53</v>
+      <c r="P8" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.25">
@@ -829,8 +1035,8 @@
         <v>14</v>
       </c>
       <c r="N9" s="2"/>
-      <c r="P9" s="11" t="s">
-        <v>54</v>
+      <c r="P9" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.25">
@@ -839,12 +1045,12 @@
         <v>4</v>
       </c>
       <c r="G10" s="2"/>
-      <c r="I10" s="12" t="s">
-        <v>45</v>
+      <c r="I10" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="N10" s="2"/>
-      <c r="P10" s="11" t="s">
-        <v>55</v>
+      <c r="P10" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.25">
@@ -855,11 +1061,11 @@
       <c r="G11" s="2"/>
       <c r="I11" s="1"/>
       <c r="J11" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="N11" s="2"/>
-      <c r="P11" s="11" t="s">
-        <v>56</v>
+      <c r="P11" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.25">
@@ -875,7 +1081,7 @@
       <c r="M12" s="6"/>
       <c r="N12" s="7"/>
       <c r="Q12" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.25">
@@ -885,7 +1091,7 @@
       </c>
       <c r="G13" s="2"/>
       <c r="R13" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.25">
@@ -895,7 +1101,7 @@
       </c>
       <c r="G14" s="2"/>
       <c r="P14" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.25">
@@ -905,7 +1111,7 @@
       </c>
       <c r="G15" s="2"/>
       <c r="Q15" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.25">
@@ -915,16 +1121,16 @@
       </c>
       <c r="G16" s="2"/>
       <c r="R16" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G17" s="2"/>
       <c r="P17" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.25">
@@ -933,7 +1139,7 @@
       </c>
       <c r="G18" s="2"/>
       <c r="Q18" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
@@ -943,7 +1149,7 @@
       </c>
       <c r="G19" s="2"/>
       <c r="P19" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
@@ -953,22 +1159,28 @@
       </c>
       <c r="G20" s="2"/>
       <c r="Q20" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
-      <c r="D21" s="11" t="s">
+      <c r="D21" t="s">
         <v>18</v>
       </c>
       <c r="G21" s="2"/>
+      <c r="P21" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
-      <c r="D22" s="11" t="s">
+      <c r="D22" t="s">
         <v>17</v>
       </c>
       <c r="G22" s="2"/>
+      <c r="Q22" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
@@ -976,30 +1188,39 @@
         <v>20</v>
       </c>
       <c r="G23" s="2"/>
+      <c r="P23" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G24" s="2"/>
+      <c r="P24" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="G25" s="2"/>
+      <c r="P25" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="3" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E27" s="4"/>
       <c r="G27" s="2"/>
@@ -1007,14 +1228,14 @@
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="3" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="G28" s="2"/>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="3" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="G29" s="2"/>
     </row>
@@ -1033,80 +1254,78 @@
     <mergeCell ref="P2:U2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0DF48AC-9952-4727-8CB8-77DFB73B6B59}">
-  <dimension ref="A3:A15"/>
+  <dimension ref="B3:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>34</v>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/Notas.xlsx
+++ b/Notas.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Daniel\Desktop\GitHub\Udemy-Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECAE7EB8-AE57-4872-A089-F95D3150286D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9231B456-B3C4-4E41-BABE-4EFDC48980C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{9AA41B25-E233-4297-AEE4-9105559EC584}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
-    <sheet name="Pruebas" sheetId="2" r:id="rId2"/>
+    <sheet name="Notas" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,6 +42,30 @@
     <author>Carlos Daniel</author>
   </authors>
   <commentList>
+    <comment ref="W8" authorId="0" shapeId="0" xr:uid="{6BF1B820-34B0-4DD3-8F06-58FB3A7DF510}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Carlos Daniel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+"En esta matriz, busca qué se tiene en la fila tal y columna tal"</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="P11" authorId="0" shapeId="0" xr:uid="{DB233F56-A94B-4AFD-A93B-3D01DFA6A7ED}">
       <text>
         <r>
@@ -63,6 +87,30 @@
           </rPr>
           <t xml:space="preserve">
 Si en el argumento de la función sólo se mete una matriz, entonces hace la SUMAPRODUCTO de esa matriz consigomisma</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W11" authorId="0" shapeId="0" xr:uid="{B0DEB6E1-0854-422F-A988-FAFF2526702B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Carlos Daniel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+En esta matriz unidimensional, devuelve el no. de fila/columna donde aparece cierto elemento</t>
         </r>
       </text>
     </comment>
@@ -105,7 +153,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="100">
   <si>
     <t>Sección 2: Fórmulas 101</t>
   </si>
@@ -430,13 +478,538 @@
   </si>
   <si>
     <t>Se podría usar pensándolo como en regex</t>
+  </si>
+  <si>
+    <t>Sección 5: Funciones de búsqueda y referencia</t>
+  </si>
+  <si>
+    <t>Función FILA y FILAS</t>
+  </si>
+  <si>
+    <t>Función COLUMNA y COLUMNAS</t>
+  </si>
+  <si>
+    <t>Función BUSCARV, BUSCARH</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">+ Respecto a las funciones </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">BUSCARV() </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">y </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BUSCARH()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, en caso de que existan coincidencias en el valor buscado, Excel siempre</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">devolverá el valor en la </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fila más alta</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> o en la </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>columna más a la izquierda</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> de la matriz (en buscarv y buscarh, respectivamente)</t>
+    </r>
+  </si>
+  <si>
+    <t>se muestra en la parte inferior.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">+ Cuando en una columna tenemos valores numéricos y algunos </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>valores NA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Excel no hará el resumen estadístico que normalmente</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Esto sería una forma de identificar algún dato que no corresponde con valores numéricos (NA, textos, fechas) en </t>
+  </si>
+  <si>
+    <t>la misma columna</t>
+  </si>
+  <si>
+    <t>buscan los datos, pero esto muestra una desventaja al momento de capturar nuevos datos en esa matriz, así que una recomendación sería</t>
+  </si>
+  <si>
+    <r>
+      <t>seleccionar las</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> columnas completas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (con todos los renglones) cuando selecionamos la matriz</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">+ La </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>coincidencia aproximada</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> de </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">BUSCARV() </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">duelve el valor </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>menor o igual</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Si buscamos el valor de 86.6 en</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>Estará devolviendo "b"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">+ En </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BUSCARV()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> se podría referenciar a la matriz donde se buscan los datos como un nombre, es decir, asignarle un nombre a la matriz donde se</t>
+    </r>
+  </si>
+  <si>
+    <t>Función INDICE</t>
+  </si>
+  <si>
+    <t>Estas usan de referencia al libro de Excel</t>
+  </si>
+  <si>
+    <t>Función COINCIDIR</t>
+  </si>
+  <si>
+    <t>coordenadas de row&amp;col</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Obtiene el </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>valor dentro de una matriz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> donde se tiene que dar </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Obtiene el </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>no. de fila</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> o </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>no. de columna</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> donde se ubica cierto</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">elemento en una matriz </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>unidimensional</t>
+    </r>
+  </si>
+  <si>
+    <t>Anidar INDICE y COINCIDIR</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>INDICE(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> matriz , COINCIDIR(), COINCIDIR() </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">+ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>COINCIDIR()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sirve para regresar el </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>número de una fila</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> o </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>número de una columna</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">+ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>INDICE()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sirve para regresar </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>un valor que está dentro de una matriz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, donde se especifica la fila y la columna</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -470,6 +1043,22 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -578,7 +1167,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -596,6 +1185,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -910,10 +1500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A0D23AE-AC8A-462F-B95D-7BE995AE01E7}">
-  <dimension ref="B1:U30"/>
+  <dimension ref="B1:AB30"/>
   <sheetViews>
-    <sheetView topLeftCell="H10" workbookViewId="0">
-      <selection activeCell="Q27" sqref="Q27"/>
+    <sheetView topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="X18" sqref="X18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -921,8 +1511,8 @@
     <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
@@ -947,14 +1537,28 @@
       <c r="S2" s="9"/>
       <c r="T2" s="9"/>
       <c r="U2" s="10"/>
-    </row>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="W2" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="10"/>
+    </row>
+    <row r="3" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="G3" s="2"/>
       <c r="I3" s="1"/>
       <c r="N3" s="2"/>
-    </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="P3" s="1"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="2"/>
+    </row>
+    <row r="4" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -963,11 +1567,19 @@
         <v>28</v>
       </c>
       <c r="N4" s="2"/>
-      <c r="P4" t="s">
+      <c r="P4" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="2"/>
+      <c r="W4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -976,11 +1588,19 @@
         <v>29</v>
       </c>
       <c r="N5" s="2"/>
-      <c r="P5" t="s">
+      <c r="P5" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="2"/>
+      <c r="W5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" t="s">
         <v>2</v>
@@ -991,11 +1611,19 @@
         <v>31</v>
       </c>
       <c r="N6" s="2"/>
-      <c r="P6" t="s">
+      <c r="P6" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="2"/>
+      <c r="X6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="D7" t="s">
         <v>11</v>
@@ -1006,11 +1634,19 @@
         <v>30</v>
       </c>
       <c r="N7" s="2"/>
-      <c r="P7" t="s">
+      <c r="P7" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="2"/>
+      <c r="W7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="D8" t="s">
         <v>12</v>
@@ -1021,11 +1657,19 @@
         <v>34</v>
       </c>
       <c r="N8" s="2"/>
-      <c r="P8" t="s">
+      <c r="P8" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="2"/>
+      <c r="W8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="D9" t="s">
         <v>13</v>
@@ -1035,11 +1679,19 @@
         <v>14</v>
       </c>
       <c r="N9" s="2"/>
-      <c r="P9" t="s">
+      <c r="P9" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="2"/>
+      <c r="X9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" t="s">
         <v>4</v>
@@ -1049,11 +1701,19 @@
         <v>32</v>
       </c>
       <c r="N10" s="2"/>
-      <c r="P10" t="s">
+      <c r="P10" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="2"/>
+      <c r="X10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="D11" t="s">
         <v>5</v>
@@ -1064,11 +1724,19 @@
         <v>33</v>
       </c>
       <c r="N11" s="2"/>
-      <c r="P11" t="s">
+      <c r="P11" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="2"/>
+      <c r="W11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="D12" t="s">
         <v>6</v>
@@ -1080,144 +1748,232 @@
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
       <c r="N12" s="7"/>
-      <c r="Q12" t="s">
+      <c r="P12" s="1"/>
+      <c r="Q12" s="11" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="2"/>
+      <c r="X12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" t="s">
         <v>7</v>
       </c>
       <c r="G13" s="2"/>
-      <c r="R13" t="s">
+      <c r="P13" s="1"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="2"/>
+      <c r="X13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="D14" t="s">
         <v>8</v>
       </c>
       <c r="G14" s="2"/>
-      <c r="P14" t="s">
+      <c r="P14" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="2"/>
+      <c r="W14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="D15" t="s">
         <v>9</v>
       </c>
       <c r="G15" s="2"/>
-      <c r="Q15" t="s">
+      <c r="P15" s="1"/>
+      <c r="Q15" s="11" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="2"/>
+      <c r="X15" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="D16" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2"/>
-      <c r="R16" t="s">
+      <c r="P16" s="1"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="2"/>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G17" s="2"/>
-      <c r="P17" t="s">
+      <c r="P17" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="2"/>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G18" s="2"/>
-      <c r="Q18" t="s">
+      <c r="P18" s="1"/>
+      <c r="Q18" s="11" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="2"/>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" t="s">
         <v>16</v>
       </c>
       <c r="G19" s="2"/>
-      <c r="P19" t="s">
+      <c r="P19" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="2"/>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" t="s">
         <v>19</v>
       </c>
       <c r="G20" s="2"/>
-      <c r="Q20" t="s">
+      <c r="P20" s="1"/>
+      <c r="Q20" s="11" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="2"/>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="D21" t="s">
         <v>18</v>
       </c>
       <c r="G21" s="2"/>
-      <c r="P21" t="s">
+      <c r="P21" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="2"/>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="D22" t="s">
         <v>17</v>
       </c>
       <c r="G22" s="2"/>
-      <c r="Q22" t="s">
+      <c r="P22" s="1"/>
+      <c r="Q22" s="11" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="2"/>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" t="s">
         <v>20</v>
       </c>
       <c r="G23" s="2"/>
-      <c r="P23" t="s">
+      <c r="P23" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="2"/>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G24" s="2"/>
-      <c r="P24" t="s">
+      <c r="P24" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="2"/>
+    </row>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" t="s">
         <v>22</v>
       </c>
       <c r="G25" s="2"/>
-      <c r="P25" t="s">
+      <c r="P25" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="11"/>
+      <c r="U25" s="2"/>
+    </row>
+    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="P26" s="5"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6"/>
+      <c r="U26" s="7"/>
+    </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="3" t="s">
         <v>24</v>
@@ -1225,21 +1981,21 @@
       <c r="E27" s="4"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B30" s="5"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
@@ -1248,10 +2004,11 @@
       <c r="G30" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="I2:N2"/>
     <mergeCell ref="P2:U2"/>
+    <mergeCell ref="W2:AB2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -1260,10 +2017,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0DF48AC-9952-4727-8CB8-77DFB73B6B59}">
-  <dimension ref="B3:D17"/>
+  <dimension ref="B3:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1323,9 +2080,101 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E33">
+        <v>25</v>
+      </c>
+      <c r="F33" t="s">
+        <v>84</v>
+      </c>
+      <c r="H33" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E34">
+        <v>50</v>
+      </c>
+      <c r="F34" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E35">
+        <v>100</v>
+      </c>
+      <c r="F35" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/Notas.xlsx
+++ b/Notas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Daniel\Desktop\GitHub\Udemy-Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9231B456-B3C4-4E41-BABE-4EFDC48980C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEFD6E19-7BFC-459F-9D88-82860A50B1B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{9AA41B25-E233-4297-AEE4-9105559EC584}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{9AA41B25-E233-4297-AEE4-9105559EC584}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
     <author>Carlos Daniel</author>
   </authors>
   <commentList>
-    <comment ref="W8" authorId="0" shapeId="0" xr:uid="{6BF1B820-34B0-4DD3-8F06-58FB3A7DF510}">
+    <comment ref="W9" authorId="0" shapeId="0" xr:uid="{6BF1B820-34B0-4DD3-8F06-58FB3A7DF510}">
       <text>
         <r>
           <rPr>
@@ -90,7 +90,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W11" authorId="0" shapeId="0" xr:uid="{B0DEB6E1-0854-422F-A988-FAFF2526702B}">
+    <comment ref="W12" authorId="0" shapeId="0" xr:uid="{B0DEB6E1-0854-422F-A988-FAFF2526702B}">
       <text>
         <r>
           <rPr>
@@ -153,7 +153,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="124">
   <si>
     <t>Sección 2: Fórmulas 101</t>
   </si>
@@ -1003,6 +1003,202 @@
       </rPr>
       <t>, donde se especifica la fila y la columna</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">+ Tabla[Columna1] es una </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>referencia estructurada,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> se usan en tablas creadas en Excel cuando se hace referencia a un conjunto de datos</t>
+    </r>
+  </si>
+  <si>
+    <t>+ En Excel existen dos comodines</t>
+  </si>
+  <si>
+    <t>* es para indicar que puede ser un texto de varios caracteres</t>
+  </si>
+  <si>
+    <t>Kaz*</t>
+  </si>
+  <si>
+    <t>? Es para indicar que puede ser un texto de un solo carácter</t>
+  </si>
+  <si>
+    <t>Franci*</t>
+  </si>
+  <si>
+    <t>Función BUSCARX</t>
+  </si>
+  <si>
+    <t>Coincidencia aproximada</t>
+  </si>
+  <si>
+    <t>Si no se encuentra valor</t>
+  </si>
+  <si>
+    <t>Comodines</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">+ La </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>coincidencia -1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> de</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> BUSCARX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> funciona igual que la coincidencia aproximada de BUSCARV</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">+ Por default, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BUSCARX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> usa una </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>coincidencia exacta</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">+ En la función </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BUSCARX,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> al momento de buscar una coincidencia aproximada, no es necesario que los valores estén ordenados de menor a mayor,</t>
+    </r>
+  </si>
+  <si>
+    <t>a diferencia de BUSCARV donde si era totalmente necesario (recordar proyecto de riesgos con Jorge)</t>
+  </si>
+  <si>
+    <t>Ejemplo de concatenar dos BUSCARX</t>
+  </si>
+  <si>
+    <t>Función ELEGIR</t>
+  </si>
+  <si>
+    <t>Combinación con COINCIDIR</t>
+  </si>
+  <si>
+    <t>Función DESREF</t>
+  </si>
+  <si>
+    <t>Función CONTARA</t>
+  </si>
+  <si>
+    <t>Devuelve el número de celdas vacias dado un rango de celdas</t>
+  </si>
+  <si>
+    <t>Devuelve el valor de una celda a partir de pararse en una cierta celda</t>
+  </si>
+  <si>
+    <t>y moverse hacia la derecha y/o abajo</t>
   </si>
 </sst>
 </file>
@@ -1167,7 +1363,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -1185,7 +1381,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1502,8 +1697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A0D23AE-AC8A-462F-B95D-7BE995AE01E7}">
   <dimension ref="B1:AB30"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="X18" sqref="X18"/>
+    <sheetView tabSelected="1" topLeftCell="T16" workbookViewId="0">
+      <selection activeCell="X31" sqref="X31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1552,10 +1747,6 @@
       <c r="I3" s="1"/>
       <c r="N3" s="2"/>
       <c r="P3" s="1"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
       <c r="U3" s="2"/>
     </row>
     <row r="4" spans="2:28" x14ac:dyDescent="0.25">
@@ -1570,10 +1761,6 @@
       <c r="P4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
       <c r="U4" s="2"/>
       <c r="W4" t="s">
         <v>71</v>
@@ -1591,13 +1778,9 @@
       <c r="P5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
       <c r="U5" s="2"/>
-      <c r="W5" t="s">
-        <v>72</v>
+      <c r="X5" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="2:28" x14ac:dyDescent="0.25">
@@ -1614,13 +1797,9 @@
       <c r="P6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
       <c r="U6" s="2"/>
-      <c r="X6" t="s">
-        <v>90</v>
+      <c r="W6" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="2:28" x14ac:dyDescent="0.25">
@@ -1637,13 +1816,9 @@
       <c r="P7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
       <c r="U7" s="2"/>
-      <c r="W7" t="s">
-        <v>73</v>
+      <c r="X7" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="2:28" x14ac:dyDescent="0.25">
@@ -1660,13 +1835,9 @@
       <c r="P8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
       <c r="U8" s="2"/>
       <c r="W8" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="2:28" x14ac:dyDescent="0.25">
@@ -1682,13 +1853,9 @@
       <c r="P9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
       <c r="U9" s="2"/>
-      <c r="X9" t="s">
-        <v>93</v>
+      <c r="W9" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="2:28" x14ac:dyDescent="0.25">
@@ -1704,13 +1871,9 @@
       <c r="P10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
       <c r="U10" s="2"/>
       <c r="X10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="2:28" x14ac:dyDescent="0.25">
@@ -1727,13 +1890,9 @@
       <c r="P11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
       <c r="U11" s="2"/>
-      <c r="W11" t="s">
-        <v>91</v>
+      <c r="X11" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="2:28" x14ac:dyDescent="0.25">
@@ -1749,15 +1908,12 @@
       <c r="M12" s="6"/>
       <c r="N12" s="7"/>
       <c r="P12" s="1"/>
-      <c r="Q12" s="11" t="s">
+      <c r="Q12" t="s">
         <v>44</v>
       </c>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
       <c r="U12" s="2"/>
-      <c r="X12" t="s">
-        <v>94</v>
+      <c r="W12" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="2:28" x14ac:dyDescent="0.25">
@@ -1767,15 +1923,12 @@
       </c>
       <c r="G13" s="2"/>
       <c r="P13" s="1"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11" t="s">
+      <c r="R13" t="s">
         <v>45</v>
       </c>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
       <c r="U13" s="2"/>
       <c r="X13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="2:28" x14ac:dyDescent="0.25">
@@ -1787,13 +1940,9 @@
       <c r="P14" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
-      <c r="T14" s="11"/>
       <c r="U14" s="2"/>
-      <c r="W14" t="s">
-        <v>96</v>
+      <c r="X14" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="2:28" x14ac:dyDescent="0.25">
@@ -1803,15 +1952,12 @@
       </c>
       <c r="G15" s="2"/>
       <c r="P15" s="1"/>
-      <c r="Q15" s="11" t="s">
+      <c r="Q15" t="s">
         <v>47</v>
       </c>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11"/>
       <c r="U15" s="2"/>
-      <c r="X15" s="3" t="s">
-        <v>97</v>
+      <c r="W15" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="2:28" x14ac:dyDescent="0.25">
@@ -1821,15 +1967,15 @@
       </c>
       <c r="G16" s="2"/>
       <c r="P16" s="1"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11" t="s">
+      <c r="R16" t="s">
         <v>52</v>
       </c>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11"/>
       <c r="U16" s="2"/>
-    </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="X16" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>14</v>
       </c>
@@ -1837,27 +1983,26 @@
       <c r="P17" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
       <c r="U17" s="2"/>
-    </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="W17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G18" s="2"/>
       <c r="P18" s="1"/>
-      <c r="Q18" s="11" t="s">
+      <c r="Q18" t="s">
         <v>49</v>
       </c>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11"/>
       <c r="U18" s="2"/>
-    </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="X18" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" t="s">
         <v>16</v>
@@ -1866,28 +2011,27 @@
       <c r="P19" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="11"/>
       <c r="U19" s="2"/>
-    </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="X19" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" t="s">
         <v>19</v>
       </c>
       <c r="G20" s="2"/>
       <c r="P20" s="1"/>
-      <c r="Q20" s="11" t="s">
+      <c r="Q20" t="s">
         <v>51</v>
       </c>
-      <c r="R20" s="11"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="11"/>
       <c r="U20" s="2"/>
-    </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="Y20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="D21" t="s">
         <v>18</v>
@@ -1896,28 +2040,27 @@
       <c r="P21" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="11"/>
-      <c r="S21" s="11"/>
-      <c r="T21" s="11"/>
       <c r="U21" s="2"/>
-    </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="Z21" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="D22" t="s">
         <v>17</v>
       </c>
       <c r="G22" s="2"/>
       <c r="P22" s="1"/>
-      <c r="Q22" s="11" t="s">
+      <c r="Q22" t="s">
         <v>54</v>
       </c>
-      <c r="R22" s="11"/>
-      <c r="S22" s="11"/>
-      <c r="T22" s="11"/>
       <c r="U22" s="2"/>
-    </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="Z22" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" t="s">
         <v>20</v>
@@ -1926,13 +2069,12 @@
       <c r="P23" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="11"/>
-      <c r="S23" s="11"/>
-      <c r="T23" s="11"/>
       <c r="U23" s="2"/>
-    </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="X23" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>21</v>
       </c>
@@ -1940,13 +2082,12 @@
       <c r="P24" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="11"/>
-      <c r="S24" s="11"/>
-      <c r="T24" s="11"/>
       <c r="U24" s="2"/>
-    </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="W24" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" t="s">
         <v>22</v>
@@ -1955,13 +2096,12 @@
       <c r="P25" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="Q25" s="11"/>
-      <c r="R25" s="11"/>
-      <c r="S25" s="11"/>
-      <c r="T25" s="11"/>
       <c r="U25" s="2"/>
-    </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="X25" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="26" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>23</v>
       </c>
@@ -1972,36 +2112,51 @@
       <c r="S26" s="6"/>
       <c r="T26" s="6"/>
       <c r="U26" s="7"/>
-    </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="W26" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E27" s="4"/>
       <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="X27" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="W28" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G29" s="2"/>
-    </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="X29" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="30" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B30" s="5"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="7"/>
+      <c r="X30" t="s">
+        <v>123</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2017,10 +2172,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0DF48AC-9952-4727-8CB8-77DFB73B6B59}">
-  <dimension ref="B3:H39"/>
+  <dimension ref="B3:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2175,6 +2330,56 @@
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="s">
         <v>99</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B41" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B43" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/Notas.xlsx
+++ b/Notas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Daniel\Desktop\GitHub\Udemy-Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEFD6E19-7BFC-459F-9D88-82860A50B1B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED6F22EE-B05A-4B7A-9C1C-6B3C8A97B409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{9AA41B25-E233-4297-AEE4-9105559EC584}"/>
   </bookViews>
@@ -114,6 +114,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="AE23" authorId="0" shapeId="0" xr:uid="{49255402-6D41-4859-8185-77EEEC0A8F73}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Carlos Daniel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Funciona igual que HALLAR pero es sensible a mayúsculas y minúsculas</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="P25" authorId="0" shapeId="0" xr:uid="{F1F86033-143A-4921-B651-D0CC07F5781B}">
       <text>
         <r>
@@ -153,7 +177,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="151">
   <si>
     <t>Sección 2: Fórmulas 101</t>
   </si>
@@ -1199,6 +1223,110 @@
   </si>
   <si>
     <t>y moverse hacia la derecha y/o abajo</t>
+  </si>
+  <si>
+    <t>Sección 6: Funciones de texto</t>
+  </si>
+  <si>
+    <t>Función ESPACIOS</t>
+  </si>
+  <si>
+    <t>Función MAYUSC</t>
+  </si>
+  <si>
+    <t>Función MINUSC</t>
+  </si>
+  <si>
+    <t>Función NOMPROPIO</t>
+  </si>
+  <si>
+    <t>Todas estas sirven para formatear las celdas de texto</t>
+  </si>
+  <si>
+    <t>Función CONCATENAR</t>
+  </si>
+  <si>
+    <t>Una alternativa sería usar "&amp;"</t>
+  </si>
+  <si>
+    <t>Función IZQUIERDA</t>
+  </si>
+  <si>
+    <t>Función DERECHA</t>
+  </si>
+  <si>
+    <t>Función EXTRAE</t>
+  </si>
+  <si>
+    <t>Función LARGO</t>
+  </si>
+  <si>
+    <t>A partir de una cierta posición, extrae un número de caracteres</t>
+  </si>
+  <si>
+    <t>Devuelve el número de caracteres de una cadena de texto</t>
+  </si>
+  <si>
+    <t>Función TEXTO</t>
+  </si>
+  <si>
+    <t>Convierte de valor numérico a texto</t>
+  </si>
+  <si>
+    <t>Función VALOR</t>
+  </si>
+  <si>
+    <t>Convierte de texto a valor numérico</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">+ En la función </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TEXTO()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> se debe poner el formato deseado entre comillas:</t>
+    </r>
+  </si>
+  <si>
+    <t>"$#,###"</t>
+  </si>
+  <si>
+    <t>Función HALLAR</t>
+  </si>
+  <si>
+    <t>Devuelve la posición en que se encuentra un carácter</t>
+  </si>
+  <si>
+    <t>EXTRAE anidado con HALLAR</t>
+  </si>
+  <si>
+    <t>Función ENCONTRAR</t>
+  </si>
+  <si>
+    <t>Combinación SI(ESNUMERO(HALLAR(</t>
+  </si>
+  <si>
+    <t>Función SUSTITUIR</t>
+  </si>
+  <si>
+    <t>Reemplazar una cadena/carácter por otro que escojamos</t>
   </si>
 </sst>
 </file>
@@ -1363,7 +1491,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -1381,6 +1509,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1695,10 +1825,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A0D23AE-AC8A-462F-B95D-7BE995AE01E7}">
-  <dimension ref="B1:AB30"/>
+  <dimension ref="B1:AJ31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T16" workbookViewId="0">
-      <selection activeCell="X31" sqref="X31"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AB1" sqref="AB1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1706,8 +1836,8 @@
     <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
@@ -1739,17 +1869,41 @@
       <c r="Y2" s="9"/>
       <c r="Z2" s="9"/>
       <c r="AA2" s="9"/>
-      <c r="AB2" s="10"/>
-    </row>
-    <row r="3" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="AB2" s="9"/>
+      <c r="AC2" s="10"/>
+      <c r="AE2" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF2" s="9"/>
+      <c r="AG2" s="9"/>
+      <c r="AH2" s="9"/>
+      <c r="AI2" s="9"/>
+      <c r="AJ2" s="10"/>
+    </row>
+    <row r="3" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="G3" s="2"/>
       <c r="I3" s="1"/>
       <c r="N3" s="2"/>
       <c r="P3" s="1"/>
       <c r="U3" s="2"/>
-    </row>
-    <row r="4" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="W3" s="1"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="11"/>
+      <c r="AB3" s="11"/>
+      <c r="AC3" s="2"/>
+      <c r="AE3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AF3" s="11"/>
+      <c r="AG3" s="11"/>
+      <c r="AH3" s="11"/>
+      <c r="AI3" s="11"/>
+      <c r="AJ3" s="2"/>
+    </row>
+    <row r="4" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1762,11 +1916,25 @@
         <v>36</v>
       </c>
       <c r="U4" s="2"/>
-      <c r="W4" t="s">
+      <c r="W4" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="5" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="11"/>
+      <c r="AC4" s="2"/>
+      <c r="AE4" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AF4" s="11"/>
+      <c r="AG4" s="11"/>
+      <c r="AH4" s="11"/>
+      <c r="AI4" s="11"/>
+      <c r="AJ4" s="2"/>
+    </row>
+    <row r="5" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1779,11 +1947,25 @@
         <v>37</v>
       </c>
       <c r="U5" s="2"/>
-      <c r="X5" t="s">
+      <c r="W5" s="1"/>
+      <c r="X5" s="11" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="6" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="11"/>
+      <c r="AC5" s="2"/>
+      <c r="AE5" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AF5" s="11"/>
+      <c r="AG5" s="11"/>
+      <c r="AH5" s="11"/>
+      <c r="AI5" s="11"/>
+      <c r="AJ5" s="2"/>
+    </row>
+    <row r="6" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" t="s">
         <v>2</v>
@@ -1798,11 +1980,25 @@
         <v>38</v>
       </c>
       <c r="U6" s="2"/>
-      <c r="W6" t="s">
+      <c r="W6" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="7" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="2"/>
+      <c r="AE6" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AF6" s="11"/>
+      <c r="AG6" s="11"/>
+      <c r="AH6" s="11"/>
+      <c r="AI6" s="11"/>
+      <c r="AJ6" s="2"/>
+    </row>
+    <row r="7" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="D7" t="s">
         <v>11</v>
@@ -1817,11 +2013,25 @@
         <v>39</v>
       </c>
       <c r="U7" s="2"/>
-      <c r="X7" t="s">
+      <c r="W7" s="1"/>
+      <c r="X7" s="11" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="8" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="11"/>
+      <c r="AC7" s="2"/>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="AG7" s="11"/>
+      <c r="AH7" s="11"/>
+      <c r="AI7" s="11"/>
+      <c r="AJ7" s="2"/>
+    </row>
+    <row r="8" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="D8" t="s">
         <v>12</v>
@@ -1836,11 +2046,25 @@
         <v>40</v>
       </c>
       <c r="U8" s="2"/>
-      <c r="W8" t="s">
+      <c r="W8" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="9" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="2"/>
+      <c r="AE8" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF8" s="11"/>
+      <c r="AG8" s="11"/>
+      <c r="AH8" s="11"/>
+      <c r="AI8" s="11"/>
+      <c r="AJ8" s="2"/>
+    </row>
+    <row r="9" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="D9" t="s">
         <v>13</v>
@@ -1854,11 +2078,25 @@
         <v>41</v>
       </c>
       <c r="U9" s="2"/>
-      <c r="W9" t="s">
+      <c r="W9" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="10" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="11"/>
+      <c r="AC9" s="2"/>
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG9" s="11"/>
+      <c r="AH9" s="11"/>
+      <c r="AI9" s="11"/>
+      <c r="AJ9" s="2"/>
+    </row>
+    <row r="10" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" t="s">
         <v>4</v>
@@ -1872,11 +2110,25 @@
         <v>42</v>
       </c>
       <c r="U10" s="2"/>
-      <c r="X10" t="s">
+      <c r="W10" s="1"/>
+      <c r="X10" s="11" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="11" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="11"/>
+      <c r="AC10" s="2"/>
+      <c r="AE10" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AF10" s="11"/>
+      <c r="AG10" s="11"/>
+      <c r="AH10" s="11"/>
+      <c r="AI10" s="11"/>
+      <c r="AJ10" s="2"/>
+    </row>
+    <row r="11" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="D11" t="s">
         <v>5</v>
@@ -1891,11 +2143,25 @@
         <v>43</v>
       </c>
       <c r="U11" s="2"/>
-      <c r="X11" t="s">
+      <c r="W11" s="1"/>
+      <c r="X11" s="11" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="12" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="11"/>
+      <c r="AC11" s="2"/>
+      <c r="AE11" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AF11" s="11"/>
+      <c r="AG11" s="11"/>
+      <c r="AH11" s="11"/>
+      <c r="AI11" s="11"/>
+      <c r="AJ11" s="2"/>
+    </row>
+    <row r="12" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="D12" t="s">
         <v>6</v>
@@ -1912,11 +2178,25 @@
         <v>44</v>
       </c>
       <c r="U12" s="2"/>
-      <c r="W12" t="s">
+      <c r="W12" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="13" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="11"/>
+      <c r="AB12" s="11"/>
+      <c r="AC12" s="2"/>
+      <c r="AE12" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF12" s="11"/>
+      <c r="AG12" s="11"/>
+      <c r="AH12" s="11"/>
+      <c r="AI12" s="11"/>
+      <c r="AJ12" s="2"/>
+    </row>
+    <row r="13" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" t="s">
         <v>7</v>
@@ -1927,11 +2207,25 @@
         <v>45</v>
       </c>
       <c r="U13" s="2"/>
-      <c r="X13" t="s">
+      <c r="W13" s="1"/>
+      <c r="X13" s="11" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="14" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="11"/>
+      <c r="AA13" s="11"/>
+      <c r="AB13" s="11"/>
+      <c r="AC13" s="2"/>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="AG13" s="11"/>
+      <c r="AH13" s="11"/>
+      <c r="AI13" s="11"/>
+      <c r="AJ13" s="2"/>
+    </row>
+    <row r="14" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="D14" t="s">
         <v>8</v>
@@ -1941,11 +2235,25 @@
         <v>46</v>
       </c>
       <c r="U14" s="2"/>
-      <c r="X14" t="s">
+      <c r="W14" s="1"/>
+      <c r="X14" s="11" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="15" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="11"/>
+      <c r="AA14" s="11"/>
+      <c r="AB14" s="11"/>
+      <c r="AC14" s="2"/>
+      <c r="AE14" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AF14" s="11"/>
+      <c r="AG14" s="11"/>
+      <c r="AH14" s="11"/>
+      <c r="AI14" s="11"/>
+      <c r="AJ14" s="2"/>
+    </row>
+    <row r="15" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="D15" t="s">
         <v>9</v>
@@ -1956,11 +2264,25 @@
         <v>47</v>
       </c>
       <c r="U15" s="2"/>
-      <c r="W15" t="s">
+      <c r="W15" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="16" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="11"/>
+      <c r="AA15" s="11"/>
+      <c r="AB15" s="11"/>
+      <c r="AC15" s="2"/>
+      <c r="AE15" s="1"/>
+      <c r="AF15" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="AG15" s="11"/>
+      <c r="AH15" s="11"/>
+      <c r="AI15" s="11"/>
+      <c r="AJ15" s="2"/>
+    </row>
+    <row r="16" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="D16" t="s">
         <v>10</v>
@@ -1971,11 +2293,25 @@
         <v>52</v>
       </c>
       <c r="U16" s="2"/>
-      <c r="X16" s="3" t="s">
+      <c r="W16" s="1"/>
+      <c r="X16" s="12" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="11"/>
+      <c r="AB16" s="11"/>
+      <c r="AC16" s="2"/>
+      <c r="AE16" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AF16" s="11"/>
+      <c r="AG16" s="11"/>
+      <c r="AH16" s="11"/>
+      <c r="AI16" s="11"/>
+      <c r="AJ16" s="2"/>
+    </row>
+    <row r="17" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>14</v>
       </c>
@@ -1984,11 +2320,25 @@
         <v>48</v>
       </c>
       <c r="U17" s="2"/>
-      <c r="W17" t="s">
+      <c r="W17" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="18" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="11"/>
+      <c r="AB17" s="11"/>
+      <c r="AC17" s="2"/>
+      <c r="AE17" s="1"/>
+      <c r="AF17" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="AG17" s="11"/>
+      <c r="AH17" s="11"/>
+      <c r="AI17" s="11"/>
+      <c r="AJ17" s="2"/>
+    </row>
+    <row r="18" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>15</v>
       </c>
@@ -1998,11 +2348,25 @@
         <v>49</v>
       </c>
       <c r="U18" s="2"/>
-      <c r="X18" t="s">
+      <c r="W18" s="1"/>
+      <c r="X18" s="11" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="19" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Y18" s="11"/>
+      <c r="Z18" s="11"/>
+      <c r="AA18" s="11"/>
+      <c r="AB18" s="11"/>
+      <c r="AC18" s="2"/>
+      <c r="AE18" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF18" s="11"/>
+      <c r="AG18" s="11"/>
+      <c r="AH18" s="11"/>
+      <c r="AI18" s="11"/>
+      <c r="AJ18" s="2"/>
+    </row>
+    <row r="19" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" t="s">
         <v>16</v>
@@ -2012,11 +2376,25 @@
         <v>50</v>
       </c>
       <c r="U19" s="2"/>
-      <c r="X19" t="s">
+      <c r="W19" s="1"/>
+      <c r="X19" s="11" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="20" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="11"/>
+      <c r="AA19" s="11"/>
+      <c r="AB19" s="11"/>
+      <c r="AC19" s="2"/>
+      <c r="AE19" s="1"/>
+      <c r="AF19" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG19" s="11"/>
+      <c r="AH19" s="11"/>
+      <c r="AI19" s="11"/>
+      <c r="AJ19" s="2"/>
+    </row>
+    <row r="20" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" t="s">
         <v>19</v>
@@ -2027,11 +2405,25 @@
         <v>51</v>
       </c>
       <c r="U20" s="2"/>
-      <c r="Y20" t="s">
+      <c r="W20" s="1"/>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="11" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="21" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Z20" s="11"/>
+      <c r="AA20" s="11"/>
+      <c r="AB20" s="11"/>
+      <c r="AC20" s="2"/>
+      <c r="AE20" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF20" s="11"/>
+      <c r="AG20" s="11"/>
+      <c r="AH20" s="11"/>
+      <c r="AI20" s="11"/>
+      <c r="AJ20" s="2"/>
+    </row>
+    <row r="21" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="D21" t="s">
         <v>18</v>
@@ -2041,11 +2433,25 @@
         <v>53</v>
       </c>
       <c r="U21" s="2"/>
-      <c r="Z21" t="s">
+      <c r="W21" s="1"/>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="11"/>
+      <c r="Z21" s="11" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="22" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AA21" s="11"/>
+      <c r="AB21" s="11"/>
+      <c r="AC21" s="2"/>
+      <c r="AE21" s="1"/>
+      <c r="AF21" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="AG21" s="11"/>
+      <c r="AH21" s="11"/>
+      <c r="AI21" s="11"/>
+      <c r="AJ21" s="2"/>
+    </row>
+    <row r="22" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="D22" t="s">
         <v>17</v>
@@ -2056,11 +2462,25 @@
         <v>54</v>
       </c>
       <c r="U22" s="2"/>
-      <c r="Z22" t="s">
+      <c r="W22" s="1"/>
+      <c r="X22" s="11"/>
+      <c r="Y22" s="11"/>
+      <c r="Z22" s="11" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AA22" s="11"/>
+      <c r="AB22" s="11"/>
+      <c r="AC22" s="2"/>
+      <c r="AE22" s="1"/>
+      <c r="AF22" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="AG22" s="11"/>
+      <c r="AH22" s="11"/>
+      <c r="AI22" s="11"/>
+      <c r="AJ22" s="2"/>
+    </row>
+    <row r="23" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" t="s">
         <v>20</v>
@@ -2070,11 +2490,25 @@
         <v>60</v>
       </c>
       <c r="U23" s="2"/>
-      <c r="X23" t="s">
+      <c r="W23" s="1"/>
+      <c r="X23" s="11" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="24" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Y23" s="11"/>
+      <c r="Z23" s="11"/>
+      <c r="AA23" s="11"/>
+      <c r="AB23" s="11"/>
+      <c r="AC23" s="2"/>
+      <c r="AE23" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AF23" s="11"/>
+      <c r="AG23" s="11"/>
+      <c r="AH23" s="11"/>
+      <c r="AI23" s="11"/>
+      <c r="AJ23" s="2"/>
+    </row>
+    <row r="24" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>21</v>
       </c>
@@ -2083,11 +2517,25 @@
         <v>61</v>
       </c>
       <c r="U24" s="2"/>
-      <c r="W24" t="s">
+      <c r="W24" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="25" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="X24" s="11"/>
+      <c r="Y24" s="11"/>
+      <c r="Z24" s="11"/>
+      <c r="AA24" s="11"/>
+      <c r="AB24" s="11"/>
+      <c r="AC24" s="2"/>
+      <c r="AE24" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AF24" s="11"/>
+      <c r="AG24" s="11"/>
+      <c r="AH24" s="11"/>
+      <c r="AI24" s="11"/>
+      <c r="AJ24" s="2"/>
+    </row>
+    <row r="25" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" t="s">
         <v>22</v>
@@ -2097,11 +2545,25 @@
         <v>62</v>
       </c>
       <c r="U25" s="2"/>
-      <c r="X25" t="s">
+      <c r="W25" s="1"/>
+      <c r="X25" s="11" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="26" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Y25" s="11"/>
+      <c r="Z25" s="11"/>
+      <c r="AA25" s="11"/>
+      <c r="AB25" s="11"/>
+      <c r="AC25" s="2"/>
+      <c r="AE25" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AF25" s="11"/>
+      <c r="AG25" s="11"/>
+      <c r="AH25" s="11"/>
+      <c r="AI25" s="11"/>
+      <c r="AJ25" s="2"/>
+    </row>
+    <row r="26" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>23</v>
       </c>
@@ -2112,58 +2574,112 @@
       <c r="S26" s="6"/>
       <c r="T26" s="6"/>
       <c r="U26" s="7"/>
-      <c r="W26" t="s">
+      <c r="W26" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="X26" s="11"/>
+      <c r="Y26" s="11"/>
+      <c r="Z26" s="11"/>
+      <c r="AA26" s="11"/>
+      <c r="AB26" s="11"/>
+      <c r="AC26" s="2"/>
+      <c r="AE26" s="1"/>
+      <c r="AF26" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="AG26" s="11"/>
+      <c r="AH26" s="11"/>
+      <c r="AI26" s="11"/>
+      <c r="AJ26" s="2"/>
+    </row>
+    <row r="27" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E27" s="4"/>
       <c r="G27" s="2"/>
-      <c r="X27" t="s">
+      <c r="W27" s="1"/>
+      <c r="X27" s="11" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Y27" s="11"/>
+      <c r="Z27" s="11"/>
+      <c r="AA27" s="11"/>
+      <c r="AB27" s="11"/>
+      <c r="AC27" s="2"/>
+      <c r="AE27" s="5"/>
+      <c r="AF27" s="6"/>
+      <c r="AG27" s="6"/>
+      <c r="AH27" s="6"/>
+      <c r="AI27" s="6"/>
+      <c r="AJ27" s="7"/>
+    </row>
+    <row r="28" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G28" s="2"/>
-      <c r="W28" t="s">
+      <c r="W28" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="29" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="X28" s="11"/>
+      <c r="Y28" s="11"/>
+      <c r="Z28" s="11"/>
+      <c r="AA28" s="11"/>
+      <c r="AB28" s="11"/>
+      <c r="AC28" s="2"/>
+    </row>
+    <row r="29" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G29" s="2"/>
-      <c r="X29" t="s">
+      <c r="W29" s="1"/>
+      <c r="X29" s="11" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="30" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Y29" s="11"/>
+      <c r="Z29" s="11"/>
+      <c r="AA29" s="11"/>
+      <c r="AB29" s="11"/>
+      <c r="AC29" s="2"/>
+    </row>
+    <row r="30" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B30" s="5"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="7"/>
-      <c r="X30" t="s">
+      <c r="W30" s="1"/>
+      <c r="X30" s="11" t="s">
         <v>123</v>
       </c>
+      <c r="Y30" s="11"/>
+      <c r="Z30" s="11"/>
+      <c r="AA30" s="11"/>
+      <c r="AB30" s="11"/>
+      <c r="AC30" s="2"/>
+    </row>
+    <row r="31" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="W31" s="5"/>
+      <c r="X31" s="6"/>
+      <c r="Y31" s="6"/>
+      <c r="Z31" s="6"/>
+      <c r="AA31" s="6"/>
+      <c r="AB31" s="6"/>
+      <c r="AC31" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
+    <mergeCell ref="AE2:AJ2"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="I2:N2"/>
     <mergeCell ref="P2:U2"/>
-    <mergeCell ref="W2:AB2"/>
+    <mergeCell ref="W2:AC2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -2172,10 +2688,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0DF48AC-9952-4727-8CB8-77DFB73B6B59}">
-  <dimension ref="B3:H54"/>
+  <dimension ref="B3:H57"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2362,24 +2878,34 @@
         <v>105</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" s="3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>115</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B56" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/Notas.xlsx
+++ b/Notas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Daniel\Desktop\GitHub\Udemy-Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED6F22EE-B05A-4B7A-9C1C-6B3C8A97B409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C9DADC3-37AC-4113-8721-3A9BEFAFE282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{9AA41B25-E233-4297-AEE4-9105559EC584}"/>
   </bookViews>
@@ -177,7 +177,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="166">
   <si>
     <t>Sección 2: Fórmulas 101</t>
   </si>
@@ -786,9 +786,6 @@
     <t>Función INDICE</t>
   </si>
   <si>
-    <t>Estas usan de referencia al libro de Excel</t>
-  </si>
-  <si>
     <t>Función COINCIDIR</t>
   </si>
   <si>
@@ -1327,6 +1324,100 @@
   </si>
   <si>
     <t>Reemplazar una cadena/carácter por otro que escojamos</t>
+  </si>
+  <si>
+    <t>Sección 7: Funciones de fecha y hora</t>
+  </si>
+  <si>
+    <t>La primera usa de referencia al libro de Excel</t>
+  </si>
+  <si>
+    <t>Código de fecha</t>
+  </si>
+  <si>
+    <t>Formato dd/mm/yy</t>
+  </si>
+  <si>
+    <t>Formato de fecha</t>
+  </si>
+  <si>
+    <t>Formato de celdas</t>
+  </si>
+  <si>
+    <t>Fecha (prestabelcido)</t>
+  </si>
+  <si>
+    <t>Personalizada</t>
+  </si>
+  <si>
+    <t>Serie de relleno</t>
+  </si>
+  <si>
+    <t>Función HOY</t>
+  </si>
+  <si>
+    <t>Función AHORA</t>
+  </si>
+  <si>
+    <t>Funciones AÑO, MES, DIA, HORA, MINUTO, SEGUNDO</t>
+  </si>
+  <si>
+    <t>Función FIN.MES</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Calcula el </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>último día</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> de cualquier mes pasado o futuro</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Se puede usar para sacar el </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>primer día</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> de cualquier mes p o f</t>
+    </r>
+  </si>
+  <si>
+    <t>Funció FRAC.AÑO</t>
   </si>
 </sst>
 </file>
@@ -1491,7 +1582,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -1509,8 +1600,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1825,19 +1915,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A0D23AE-AC8A-462F-B95D-7BE995AE01E7}">
-  <dimension ref="B1:AJ31"/>
+  <dimension ref="B1:AQ31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AB1" sqref="AB1"/>
+      <selection activeCell="AL18" sqref="AL18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
@@ -1872,15 +1963,23 @@
       <c r="AB2" s="9"/>
       <c r="AC2" s="10"/>
       <c r="AE2" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AF2" s="9"/>
       <c r="AG2" s="9"/>
       <c r="AH2" s="9"/>
       <c r="AI2" s="9"/>
       <c r="AJ2" s="10"/>
-    </row>
-    <row r="3" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AL2" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="AM2" s="9"/>
+      <c r="AN2" s="9"/>
+      <c r="AO2" s="9"/>
+      <c r="AP2" s="9"/>
+      <c r="AQ2" s="10"/>
+    </row>
+    <row r="3" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="G3" s="2"/>
       <c r="I3" s="1"/>
@@ -1888,22 +1987,13 @@
       <c r="P3" s="1"/>
       <c r="U3" s="2"/>
       <c r="W3" s="1"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="11"/>
-      <c r="AA3" s="11"/>
-      <c r="AB3" s="11"/>
       <c r="AC3" s="2"/>
       <c r="AE3" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AF3" s="11"/>
-      <c r="AG3" s="11"/>
-      <c r="AH3" s="11"/>
-      <c r="AI3" s="11"/>
+        <v>124</v>
+      </c>
       <c r="AJ3" s="2"/>
     </row>
-    <row r="4" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1919,22 +2009,16 @@
       <c r="W4" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="11"/>
-      <c r="AA4" s="11"/>
-      <c r="AB4" s="11"/>
       <c r="AC4" s="2"/>
       <c r="AE4" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AF4" s="11"/>
-      <c r="AG4" s="11"/>
-      <c r="AH4" s="11"/>
-      <c r="AI4" s="11"/>
+        <v>125</v>
+      </c>
       <c r="AJ4" s="2"/>
-    </row>
-    <row r="5" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AL4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1948,24 +2032,22 @@
       </c>
       <c r="U5" s="2"/>
       <c r="W5" s="1"/>
-      <c r="X5" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y5" s="11"/>
-      <c r="Z5" s="11"/>
-      <c r="AA5" s="11"/>
-      <c r="AB5" s="11"/>
+      <c r="X5" t="s">
+        <v>151</v>
+      </c>
       <c r="AC5" s="2"/>
       <c r="AE5" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AF5" s="11"/>
-      <c r="AG5" s="11"/>
-      <c r="AH5" s="11"/>
-      <c r="AI5" s="11"/>
+        <v>126</v>
+      </c>
       <c r="AJ5" s="2"/>
-    </row>
-    <row r="6" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AM5" s="11">
+        <v>1</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" t="s">
         <v>2</v>
@@ -1983,22 +2065,17 @@
       <c r="W6" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="11"/>
-      <c r="AA6" s="11"/>
-      <c r="AB6" s="11"/>
       <c r="AC6" s="2"/>
       <c r="AE6" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AF6" s="11"/>
-      <c r="AG6" s="11"/>
-      <c r="AH6" s="11"/>
-      <c r="AI6" s="11"/>
+        <v>127</v>
+      </c>
       <c r="AJ6" s="2"/>
-    </row>
-    <row r="7" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AL6" t="s">
+        <v>154</v>
+      </c>
+      <c r="AM6" s="11"/>
+    </row>
+    <row r="7" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="D7" t="s">
         <v>11</v>
@@ -2014,24 +2091,20 @@
       </c>
       <c r="U7" s="2"/>
       <c r="W7" s="1"/>
-      <c r="X7" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y7" s="11"/>
-      <c r="Z7" s="11"/>
-      <c r="AA7" s="11"/>
-      <c r="AB7" s="11"/>
+      <c r="X7" t="s">
+        <v>151</v>
+      </c>
       <c r="AC7" s="2"/>
       <c r="AE7" s="1"/>
-      <c r="AF7" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="AG7" s="11"/>
-      <c r="AH7" s="11"/>
-      <c r="AI7" s="11"/>
+      <c r="AF7" t="s">
+        <v>128</v>
+      </c>
       <c r="AJ7" s="2"/>
-    </row>
-    <row r="8" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AM7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="D8" t="s">
         <v>12</v>
@@ -2049,22 +2122,16 @@
       <c r="W8" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="11"/>
-      <c r="Z8" s="11"/>
-      <c r="AA8" s="11"/>
-      <c r="AB8" s="11"/>
       <c r="AC8" s="2"/>
       <c r="AE8" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AF8" s="11"/>
-      <c r="AG8" s="11"/>
-      <c r="AH8" s="11"/>
-      <c r="AI8" s="11"/>
+        <v>129</v>
+      </c>
       <c r="AJ8" s="2"/>
-    </row>
-    <row r="9" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AN8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="9" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="D9" t="s">
         <v>13</v>
@@ -2081,22 +2148,17 @@
       <c r="W9" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="X9" s="11"/>
-      <c r="Y9" s="11"/>
-      <c r="Z9" s="11"/>
-      <c r="AA9" s="11"/>
-      <c r="AB9" s="11"/>
       <c r="AC9" s="2"/>
       <c r="AE9" s="1"/>
-      <c r="AF9" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="AG9" s="11"/>
-      <c r="AH9" s="11"/>
-      <c r="AI9" s="11"/>
+      <c r="AF9" t="s">
+        <v>130</v>
+      </c>
       <c r="AJ9" s="2"/>
-    </row>
-    <row r="10" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AN9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" t="s">
         <v>4</v>
@@ -2111,24 +2173,19 @@
       </c>
       <c r="U10" s="2"/>
       <c r="W10" s="1"/>
-      <c r="X10" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y10" s="11"/>
-      <c r="Z10" s="11"/>
-      <c r="AA10" s="11"/>
-      <c r="AB10" s="11"/>
+      <c r="X10" t="s">
+        <v>92</v>
+      </c>
       <c r="AC10" s="2"/>
       <c r="AE10" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AF10" s="11"/>
-      <c r="AG10" s="11"/>
-      <c r="AH10" s="11"/>
-      <c r="AI10" s="11"/>
+        <v>131</v>
+      </c>
       <c r="AJ10" s="2"/>
-    </row>
-    <row r="11" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AL10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="D11" t="s">
         <v>5</v>
@@ -2144,24 +2201,19 @@
       </c>
       <c r="U11" s="2"/>
       <c r="W11" s="1"/>
-      <c r="X11" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y11" s="11"/>
-      <c r="Z11" s="11"/>
-      <c r="AA11" s="11"/>
-      <c r="AB11" s="11"/>
+      <c r="X11" t="s">
+        <v>91</v>
+      </c>
       <c r="AC11" s="2"/>
       <c r="AE11" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="AF11" s="11"/>
-      <c r="AG11" s="11"/>
-      <c r="AH11" s="11"/>
-      <c r="AI11" s="11"/>
+        <v>132</v>
+      </c>
       <c r="AJ11" s="2"/>
-    </row>
-    <row r="12" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AL11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="D12" t="s">
         <v>6</v>
@@ -2179,24 +2231,18 @@
       </c>
       <c r="U12" s="2"/>
       <c r="W12" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="X12" s="11"/>
-      <c r="Y12" s="11"/>
-      <c r="Z12" s="11"/>
-      <c r="AA12" s="11"/>
-      <c r="AB12" s="11"/>
+        <v>90</v>
+      </c>
       <c r="AC12" s="2"/>
       <c r="AE12" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="AF12" s="11"/>
-      <c r="AG12" s="11"/>
-      <c r="AH12" s="11"/>
-      <c r="AI12" s="11"/>
+        <v>133</v>
+      </c>
       <c r="AJ12" s="2"/>
-    </row>
-    <row r="13" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AL12" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" t="s">
         <v>7</v>
@@ -2208,24 +2254,20 @@
       </c>
       <c r="U13" s="2"/>
       <c r="W13" s="1"/>
-      <c r="X13" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y13" s="11"/>
-      <c r="Z13" s="11"/>
-      <c r="AA13" s="11"/>
-      <c r="AB13" s="11"/>
+      <c r="X13" t="s">
+        <v>93</v>
+      </c>
       <c r="AC13" s="2"/>
       <c r="AE13" s="1"/>
-      <c r="AF13" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="AG13" s="11"/>
-      <c r="AH13" s="11"/>
-      <c r="AI13" s="11"/>
+      <c r="AF13" t="s">
+        <v>135</v>
+      </c>
       <c r="AJ13" s="2"/>
-    </row>
-    <row r="14" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AL13" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="D14" t="s">
         <v>8</v>
@@ -2236,24 +2278,19 @@
       </c>
       <c r="U14" s="2"/>
       <c r="W14" s="1"/>
-      <c r="X14" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y14" s="11"/>
-      <c r="Z14" s="11"/>
-      <c r="AA14" s="11"/>
-      <c r="AB14" s="11"/>
+      <c r="X14" t="s">
+        <v>94</v>
+      </c>
       <c r="AC14" s="2"/>
       <c r="AE14" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AF14" s="11"/>
-      <c r="AG14" s="11"/>
-      <c r="AH14" s="11"/>
-      <c r="AI14" s="11"/>
+        <v>134</v>
+      </c>
       <c r="AJ14" s="2"/>
-    </row>
-    <row r="15" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AL14" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="D15" t="s">
         <v>9</v>
@@ -2265,24 +2302,19 @@
       </c>
       <c r="U15" s="2"/>
       <c r="W15" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="X15" s="11"/>
-      <c r="Y15" s="11"/>
-      <c r="Z15" s="11"/>
-      <c r="AA15" s="11"/>
-      <c r="AB15" s="11"/>
+        <v>95</v>
+      </c>
       <c r="AC15" s="2"/>
       <c r="AE15" s="1"/>
-      <c r="AF15" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="AG15" s="11"/>
-      <c r="AH15" s="11"/>
-      <c r="AI15" s="11"/>
+      <c r="AF15" t="s">
+        <v>136</v>
+      </c>
       <c r="AJ15" s="2"/>
-    </row>
-    <row r="16" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AM15" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="D16" t="s">
         <v>10</v>
@@ -2294,24 +2326,19 @@
       </c>
       <c r="U16" s="2"/>
       <c r="W16" s="1"/>
-      <c r="X16" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y16" s="11"/>
-      <c r="Z16" s="11"/>
-      <c r="AA16" s="11"/>
-      <c r="AB16" s="11"/>
+      <c r="X16" s="3" t="s">
+        <v>96</v>
+      </c>
       <c r="AC16" s="2"/>
       <c r="AE16" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="AF16" s="11"/>
-      <c r="AG16" s="11"/>
-      <c r="AH16" s="11"/>
-      <c r="AI16" s="11"/>
+        <v>137</v>
+      </c>
       <c r="AJ16" s="2"/>
-    </row>
-    <row r="17" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AM16" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>14</v>
       </c>
@@ -2321,24 +2348,19 @@
       </c>
       <c r="U17" s="2"/>
       <c r="W17" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="X17" s="11"/>
-      <c r="Y17" s="11"/>
-      <c r="Z17" s="11"/>
-      <c r="AA17" s="11"/>
-      <c r="AB17" s="11"/>
+        <v>105</v>
+      </c>
       <c r="AC17" s="2"/>
       <c r="AE17" s="1"/>
-      <c r="AF17" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="AG17" s="11"/>
-      <c r="AH17" s="11"/>
-      <c r="AI17" s="11"/>
+      <c r="AF17" t="s">
+        <v>138</v>
+      </c>
       <c r="AJ17" s="2"/>
-    </row>
-    <row r="18" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AL17" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>15</v>
       </c>
@@ -2349,24 +2371,16 @@
       </c>
       <c r="U18" s="2"/>
       <c r="W18" s="1"/>
-      <c r="X18" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y18" s="11"/>
-      <c r="Z18" s="11"/>
-      <c r="AA18" s="11"/>
-      <c r="AB18" s="11"/>
+      <c r="X18" t="s">
+        <v>107</v>
+      </c>
       <c r="AC18" s="2"/>
       <c r="AE18" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AF18" s="11"/>
-      <c r="AG18" s="11"/>
-      <c r="AH18" s="11"/>
-      <c r="AI18" s="11"/>
+        <v>139</v>
+      </c>
       <c r="AJ18" s="2"/>
     </row>
-    <row r="19" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" t="s">
         <v>16</v>
@@ -2377,24 +2391,17 @@
       </c>
       <c r="U19" s="2"/>
       <c r="W19" s="1"/>
-      <c r="X19" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y19" s="11"/>
-      <c r="Z19" s="11"/>
-      <c r="AA19" s="11"/>
-      <c r="AB19" s="11"/>
+      <c r="X19" t="s">
+        <v>106</v>
+      </c>
       <c r="AC19" s="2"/>
       <c r="AE19" s="1"/>
-      <c r="AF19" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="AG19" s="11"/>
-      <c r="AH19" s="11"/>
-      <c r="AI19" s="11"/>
+      <c r="AF19" t="s">
+        <v>140</v>
+      </c>
       <c r="AJ19" s="2"/>
     </row>
-    <row r="20" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" t="s">
         <v>19</v>
@@ -2406,24 +2413,16 @@
       </c>
       <c r="U20" s="2"/>
       <c r="W20" s="1"/>
-      <c r="X20" s="11"/>
-      <c r="Y20" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z20" s="11"/>
-      <c r="AA20" s="11"/>
-      <c r="AB20" s="11"/>
+      <c r="Y20" t="s">
+        <v>108</v>
+      </c>
       <c r="AC20" s="2"/>
       <c r="AE20" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AF20" s="11"/>
-      <c r="AG20" s="11"/>
-      <c r="AH20" s="11"/>
-      <c r="AI20" s="11"/>
+        <v>143</v>
+      </c>
       <c r="AJ20" s="2"/>
     </row>
-    <row r="21" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="D21" t="s">
         <v>18</v>
@@ -2434,24 +2433,18 @@
       </c>
       <c r="U21" s="2"/>
       <c r="W21" s="1"/>
-      <c r="X21" s="11"/>
-      <c r="Y21" s="11"/>
-      <c r="Z21" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA21" s="11"/>
-      <c r="AB21" s="11"/>
+      <c r="Z21" t="s">
+        <v>109</v>
+      </c>
       <c r="AC21" s="2"/>
       <c r="AE21" s="1"/>
-      <c r="AF21" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="AG21" s="11"/>
-      <c r="AH21" s="11"/>
-      <c r="AI21" s="11"/>
+      <c r="AF21" t="s">
+        <v>144</v>
+      </c>
       <c r="AJ21" s="2"/>
-    </row>
-    <row r="22" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AL21" s="4"/>
+    </row>
+    <row r="22" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="D22" t="s">
         <v>17</v>
@@ -2463,24 +2456,17 @@
       </c>
       <c r="U22" s="2"/>
       <c r="W22" s="1"/>
-      <c r="X22" s="11"/>
-      <c r="Y22" s="11"/>
-      <c r="Z22" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="AA22" s="11"/>
-      <c r="AB22" s="11"/>
+      <c r="Z22" t="s">
+        <v>110</v>
+      </c>
       <c r="AC22" s="2"/>
       <c r="AE22" s="1"/>
-      <c r="AF22" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="AG22" s="11"/>
-      <c r="AH22" s="11"/>
-      <c r="AI22" s="11"/>
+      <c r="AF22" t="s">
+        <v>145</v>
+      </c>
       <c r="AJ22" s="2"/>
     </row>
-    <row r="23" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" t="s">
         <v>20</v>
@@ -2491,24 +2477,16 @@
       </c>
       <c r="U23" s="2"/>
       <c r="W23" s="1"/>
-      <c r="X23" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y23" s="11"/>
-      <c r="Z23" s="11"/>
-      <c r="AA23" s="11"/>
-      <c r="AB23" s="11"/>
+      <c r="X23" t="s">
+        <v>115</v>
+      </c>
       <c r="AC23" s="2"/>
       <c r="AE23" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="AF23" s="11"/>
-      <c r="AG23" s="11"/>
-      <c r="AH23" s="11"/>
-      <c r="AI23" s="11"/>
+        <v>146</v>
+      </c>
       <c r="AJ23" s="2"/>
     </row>
-    <row r="24" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>21</v>
       </c>
@@ -2518,24 +2496,15 @@
       </c>
       <c r="U24" s="2"/>
       <c r="W24" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="X24" s="11"/>
-      <c r="Y24" s="11"/>
-      <c r="Z24" s="11"/>
-      <c r="AA24" s="11"/>
-      <c r="AB24" s="11"/>
+        <v>116</v>
+      </c>
       <c r="AC24" s="2"/>
       <c r="AE24" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="AF24" s="11"/>
-      <c r="AG24" s="11"/>
-      <c r="AH24" s="11"/>
-      <c r="AI24" s="11"/>
+        <v>147</v>
+      </c>
       <c r="AJ24" s="2"/>
     </row>
-    <row r="25" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" t="s">
         <v>22</v>
@@ -2546,24 +2515,16 @@
       </c>
       <c r="U25" s="2"/>
       <c r="W25" s="1"/>
-      <c r="X25" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="Y25" s="11"/>
-      <c r="Z25" s="11"/>
-      <c r="AA25" s="11"/>
-      <c r="AB25" s="11"/>
+      <c r="X25" t="s">
+        <v>117</v>
+      </c>
       <c r="AC25" s="2"/>
       <c r="AE25" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="AF25" s="11"/>
-      <c r="AG25" s="11"/>
-      <c r="AH25" s="11"/>
-      <c r="AI25" s="11"/>
+        <v>148</v>
+      </c>
       <c r="AJ25" s="2"/>
     </row>
-    <row r="26" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>23</v>
       </c>
@@ -2575,24 +2536,16 @@
       <c r="T26" s="6"/>
       <c r="U26" s="7"/>
       <c r="W26" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="X26" s="11"/>
-      <c r="Y26" s="11"/>
-      <c r="Z26" s="11"/>
-      <c r="AA26" s="11"/>
-      <c r="AB26" s="11"/>
+        <v>119</v>
+      </c>
       <c r="AC26" s="2"/>
       <c r="AE26" s="1"/>
-      <c r="AF26" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="AG26" s="11"/>
-      <c r="AH26" s="11"/>
-      <c r="AI26" s="11"/>
+      <c r="AF26" t="s">
+        <v>149</v>
+      </c>
       <c r="AJ26" s="2"/>
     </row>
-    <row r="27" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="3" t="s">
         <v>24</v>
@@ -2600,13 +2553,9 @@
       <c r="E27" s="4"/>
       <c r="G27" s="2"/>
       <c r="W27" s="1"/>
-      <c r="X27" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y27" s="11"/>
-      <c r="Z27" s="11"/>
-      <c r="AA27" s="11"/>
-      <c r="AB27" s="11"/>
+      <c r="X27" t="s">
+        <v>120</v>
+      </c>
       <c r="AC27" s="2"/>
       <c r="AE27" s="5"/>
       <c r="AF27" s="6"/>
@@ -2615,39 +2564,30 @@
       <c r="AI27" s="6"/>
       <c r="AJ27" s="7"/>
     </row>
-    <row r="28" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G28" s="2"/>
       <c r="W28" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="X28" s="11"/>
-      <c r="Y28" s="11"/>
-      <c r="Z28" s="11"/>
-      <c r="AA28" s="11"/>
-      <c r="AB28" s="11"/>
+        <v>118</v>
+      </c>
       <c r="AC28" s="2"/>
     </row>
-    <row r="29" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G29" s="2"/>
       <c r="W29" s="1"/>
-      <c r="X29" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y29" s="11"/>
-      <c r="Z29" s="11"/>
-      <c r="AA29" s="11"/>
-      <c r="AB29" s="11"/>
+      <c r="X29" t="s">
+        <v>121</v>
+      </c>
       <c r="AC29" s="2"/>
     </row>
-    <row r="30" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B30" s="5"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
@@ -2655,16 +2595,12 @@
       <c r="F30" s="6"/>
       <c r="G30" s="7"/>
       <c r="W30" s="1"/>
-      <c r="X30" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y30" s="11"/>
-      <c r="Z30" s="11"/>
-      <c r="AA30" s="11"/>
-      <c r="AB30" s="11"/>
+      <c r="X30" t="s">
+        <v>122</v>
+      </c>
       <c r="AC30" s="2"/>
     </row>
-    <row r="31" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:38" x14ac:dyDescent="0.25">
       <c r="W31" s="5"/>
       <c r="X31" s="6"/>
       <c r="Y31" s="6"/>
@@ -2674,7 +2610,8 @@
       <c r="AC31" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="AL2:AQ2"/>
     <mergeCell ref="AE2:AJ2"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="I2:N2"/>
@@ -2840,72 +2777,72 @@
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/Notas.xlsx
+++ b/Notas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Daniel\Desktop\GitHub\Udemy-Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C9DADC3-37AC-4113-8721-3A9BEFAFE282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96076BBC-D1D3-45A5-BB9B-17BA2BFAD227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{9AA41B25-E233-4297-AEE4-9105559EC584}"/>
   </bookViews>
@@ -177,7 +177,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="168">
   <si>
     <t>Sección 2: Fórmulas 101</t>
   </si>
@@ -1418,6 +1418,12 @@
   </si>
   <si>
     <t>Funció FRAC.AÑO</t>
+  </si>
+  <si>
+    <t>Función DIASEM, DIALAB, DIASLAB</t>
+  </si>
+  <si>
+    <t>Funcion SI.FECHA</t>
   </si>
 </sst>
 </file>
@@ -1582,7 +1588,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -1600,7 +1606,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1917,8 +1925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A0D23AE-AC8A-462F-B95D-7BE995AE01E7}">
   <dimension ref="B1:AQ31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AL18" sqref="AL18"/>
+    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
+      <selection activeCell="AL2" sqref="AL2:AQ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1992,6 +2000,12 @@
         <v>124</v>
       </c>
       <c r="AJ3" s="2"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="11"/>
+      <c r="AN3" s="11"/>
+      <c r="AO3" s="11"/>
+      <c r="AP3" s="11"/>
+      <c r="AQ3" s="2"/>
     </row>
     <row r="4" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
@@ -2014,9 +2028,14 @@
         <v>125</v>
       </c>
       <c r="AJ4" s="2"/>
-      <c r="AL4" t="s">
+      <c r="AL4" s="1" t="s">
         <v>152</v>
       </c>
+      <c r="AM4" s="11"/>
+      <c r="AN4" s="11"/>
+      <c r="AO4" s="11"/>
+      <c r="AP4" s="11"/>
+      <c r="AQ4" s="2"/>
     </row>
     <row r="5" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
@@ -2040,12 +2059,16 @@
         <v>126</v>
       </c>
       <c r="AJ5" s="2"/>
-      <c r="AM5" s="11">
+      <c r="AL5" s="1"/>
+      <c r="AM5" s="12">
         <v>1</v>
       </c>
-      <c r="AO5" t="s">
+      <c r="AN5" s="11"/>
+      <c r="AO5" s="11" t="s">
         <v>153</v>
       </c>
+      <c r="AP5" s="11"/>
+      <c r="AQ5" s="2"/>
     </row>
     <row r="6" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
@@ -2070,10 +2093,14 @@
         <v>127</v>
       </c>
       <c r="AJ6" s="2"/>
-      <c r="AL6" t="s">
+      <c r="AL6" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="AM6" s="11"/>
+      <c r="AM6" s="12"/>
+      <c r="AN6" s="11"/>
+      <c r="AO6" s="11"/>
+      <c r="AP6" s="11"/>
+      <c r="AQ6" s="2"/>
     </row>
     <row r="7" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
@@ -2100,9 +2127,14 @@
         <v>128</v>
       </c>
       <c r="AJ7" s="2"/>
-      <c r="AM7" t="s">
+      <c r="AL7" s="1"/>
+      <c r="AM7" s="11" t="s">
         <v>155</v>
       </c>
+      <c r="AN7" s="11"/>
+      <c r="AO7" s="11"/>
+      <c r="AP7" s="11"/>
+      <c r="AQ7" s="2"/>
     </row>
     <row r="8" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
@@ -2127,9 +2159,14 @@
         <v>129</v>
       </c>
       <c r="AJ8" s="2"/>
-      <c r="AN8" t="s">
+      <c r="AL8" s="1"/>
+      <c r="AM8" s="11"/>
+      <c r="AN8" s="11" t="s">
         <v>156</v>
       </c>
+      <c r="AO8" s="11"/>
+      <c r="AP8" s="11"/>
+      <c r="AQ8" s="2"/>
     </row>
     <row r="9" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
@@ -2154,9 +2191,14 @@
         <v>130</v>
       </c>
       <c r="AJ9" s="2"/>
-      <c r="AN9" t="s">
+      <c r="AL9" s="1"/>
+      <c r="AM9" s="11"/>
+      <c r="AN9" s="11" t="s">
         <v>157</v>
       </c>
+      <c r="AO9" s="11"/>
+      <c r="AP9" s="11"/>
+      <c r="AQ9" s="2"/>
     </row>
     <row r="10" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
@@ -2181,9 +2223,14 @@
         <v>131</v>
       </c>
       <c r="AJ10" s="2"/>
-      <c r="AL10" t="s">
+      <c r="AL10" s="1" t="s">
         <v>158</v>
       </c>
+      <c r="AM10" s="11"/>
+      <c r="AN10" s="11"/>
+      <c r="AO10" s="11"/>
+      <c r="AP10" s="11"/>
+      <c r="AQ10" s="2"/>
     </row>
     <row r="11" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
@@ -2209,9 +2256,14 @@
         <v>132</v>
       </c>
       <c r="AJ11" s="2"/>
-      <c r="AL11" t="s">
+      <c r="AL11" s="1" t="s">
         <v>159</v>
       </c>
+      <c r="AM11" s="11"/>
+      <c r="AN11" s="11"/>
+      <c r="AO11" s="11"/>
+      <c r="AP11" s="11"/>
+      <c r="AQ11" s="2"/>
     </row>
     <row r="12" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
@@ -2238,9 +2290,14 @@
         <v>133</v>
       </c>
       <c r="AJ12" s="2"/>
-      <c r="AL12" t="s">
+      <c r="AL12" s="1" t="s">
         <v>160</v>
       </c>
+      <c r="AM12" s="11"/>
+      <c r="AN12" s="11"/>
+      <c r="AO12" s="11"/>
+      <c r="AP12" s="11"/>
+      <c r="AQ12" s="2"/>
     </row>
     <row r="13" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
@@ -2263,9 +2320,14 @@
         <v>135</v>
       </c>
       <c r="AJ13" s="2"/>
-      <c r="AL13" t="s">
+      <c r="AL13" s="1" t="s">
         <v>161</v>
       </c>
+      <c r="AM13" s="11"/>
+      <c r="AN13" s="11"/>
+      <c r="AO13" s="11"/>
+      <c r="AP13" s="11"/>
+      <c r="AQ13" s="2"/>
     </row>
     <row r="14" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
@@ -2286,9 +2348,14 @@
         <v>134</v>
       </c>
       <c r="AJ14" s="2"/>
-      <c r="AL14" s="4" t="s">
+      <c r="AL14" s="13" t="s">
         <v>162</v>
       </c>
+      <c r="AM14" s="11"/>
+      <c r="AN14" s="11"/>
+      <c r="AO14" s="11"/>
+      <c r="AP14" s="11"/>
+      <c r="AQ14" s="2"/>
     </row>
     <row r="15" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
@@ -2310,9 +2377,14 @@
         <v>136</v>
       </c>
       <c r="AJ15" s="2"/>
-      <c r="AM15" t="s">
+      <c r="AL15" s="1"/>
+      <c r="AM15" s="11" t="s">
         <v>163</v>
       </c>
+      <c r="AN15" s="11"/>
+      <c r="AO15" s="11"/>
+      <c r="AP15" s="11"/>
+      <c r="AQ15" s="2"/>
     </row>
     <row r="16" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
@@ -2334,11 +2406,16 @@
         <v>137</v>
       </c>
       <c r="AJ16" s="2"/>
-      <c r="AM16" t="s">
+      <c r="AL16" s="1"/>
+      <c r="AM16" s="11" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="17" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="AN16" s="11"/>
+      <c r="AO16" s="11"/>
+      <c r="AP16" s="11"/>
+      <c r="AQ16" s="2"/>
+    </row>
+    <row r="17" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>14</v>
       </c>
@@ -2356,11 +2433,16 @@
         <v>138</v>
       </c>
       <c r="AJ17" s="2"/>
-      <c r="AL17" t="s">
+      <c r="AL17" s="1" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="18" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="AM17" s="11"/>
+      <c r="AN17" s="11"/>
+      <c r="AO17" s="11"/>
+      <c r="AP17" s="11"/>
+      <c r="AQ17" s="2"/>
+    </row>
+    <row r="18" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>15</v>
       </c>
@@ -2379,8 +2461,16 @@
         <v>139</v>
       </c>
       <c r="AJ18" s="2"/>
-    </row>
-    <row r="19" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="AL18" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="AM18" s="11"/>
+      <c r="AN18" s="11"/>
+      <c r="AO18" s="11"/>
+      <c r="AP18" s="11"/>
+      <c r="AQ18" s="2"/>
+    </row>
+    <row r="19" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" t="s">
         <v>16</v>
@@ -2400,8 +2490,16 @@
         <v>140</v>
       </c>
       <c r="AJ19" s="2"/>
-    </row>
-    <row r="20" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="AL19" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="AM19" s="11"/>
+      <c r="AN19" s="11"/>
+      <c r="AO19" s="11"/>
+      <c r="AP19" s="11"/>
+      <c r="AQ19" s="2"/>
+    </row>
+    <row r="20" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" t="s">
         <v>19</v>
@@ -2421,8 +2519,14 @@
         <v>143</v>
       </c>
       <c r="AJ20" s="2"/>
-    </row>
-    <row r="21" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="AL20" s="5"/>
+      <c r="AM20" s="6"/>
+      <c r="AN20" s="6"/>
+      <c r="AO20" s="6"/>
+      <c r="AP20" s="6"/>
+      <c r="AQ20" s="7"/>
+    </row>
+    <row r="21" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="D21" t="s">
         <v>18</v>
@@ -2444,7 +2548,7 @@
       <c r="AJ21" s="2"/>
       <c r="AL21" s="4"/>
     </row>
-    <row r="22" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="D22" t="s">
         <v>17</v>
@@ -2466,7 +2570,7 @@
       </c>
       <c r="AJ22" s="2"/>
     </row>
-    <row r="23" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" t="s">
         <v>20</v>
@@ -2486,7 +2590,7 @@
       </c>
       <c r="AJ23" s="2"/>
     </row>
-    <row r="24" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>21</v>
       </c>
@@ -2504,7 +2608,7 @@
       </c>
       <c r="AJ24" s="2"/>
     </row>
-    <row r="25" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" t="s">
         <v>22</v>
@@ -2524,7 +2628,7 @@
       </c>
       <c r="AJ25" s="2"/>
     </row>
-    <row r="26" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>23</v>
       </c>
@@ -2545,7 +2649,7 @@
       </c>
       <c r="AJ26" s="2"/>
     </row>
-    <row r="27" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="3" t="s">
         <v>24</v>
@@ -2564,7 +2668,7 @@
       <c r="AI27" s="6"/>
       <c r="AJ27" s="7"/>
     </row>
-    <row r="28" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="3" t="s">
         <v>25</v>
@@ -2575,7 +2679,7 @@
       </c>
       <c r="AC28" s="2"/>
     </row>
-    <row r="29" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="3" t="s">
         <v>26</v>
@@ -2587,7 +2691,7 @@
       </c>
       <c r="AC29" s="2"/>
     </row>
-    <row r="30" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B30" s="5"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
@@ -2600,7 +2704,7 @@
       </c>
       <c r="AC30" s="2"/>
     </row>
-    <row r="31" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:43" x14ac:dyDescent="0.25">
       <c r="W31" s="5"/>
       <c r="X31" s="6"/>
       <c r="Y31" s="6"/>

--- a/Notas.xlsx
+++ b/Notas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Daniel\Desktop\GitHub\Udemy-Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96076BBC-D1D3-45A5-BB9B-17BA2BFAD227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B77F8D-CBB5-4670-896F-DE49BD3AE042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{9AA41B25-E233-4297-AEE4-9105559EC584}"/>
   </bookViews>
@@ -177,7 +177,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="173">
   <si>
     <t>Sección 2: Fórmulas 101</t>
   </si>
@@ -1424,6 +1424,21 @@
   </si>
   <si>
     <t>Funcion SI.FECHA</t>
+  </si>
+  <si>
+    <t>Formatos basados en fórmulas</t>
+  </si>
+  <si>
+    <t>A partir de una fórmula se determina qué celdas llevan qué</t>
+  </si>
+  <si>
+    <t>formato</t>
+  </si>
+  <si>
+    <t>Sección 8: Formato basado en fórmulas</t>
+  </si>
+  <si>
+    <t>Función RESIDUO</t>
   </si>
 </sst>
 </file>
@@ -1597,6 +1612,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1607,8 +1624,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1923,10 +1938,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A0D23AE-AC8A-462F-B95D-7BE995AE01E7}">
-  <dimension ref="B1:AQ31"/>
+  <dimension ref="B1:AX31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
-      <selection activeCell="AL2" sqref="AL2:AQ2"/>
+    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
+      <selection activeCell="AS2" sqref="AS2:AX2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1935,59 +1950,67 @@
     <col min="38" max="38" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="8" t="s">
+    <row r="1" spans="2:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10"/>
-      <c r="I2" s="8" t="s">
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="12"/>
+      <c r="I2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="10"/>
-      <c r="P2" s="8" t="s">
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="12"/>
+      <c r="P2" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="10"/>
-      <c r="W2" s="8" t="s">
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="12"/>
+      <c r="W2" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="9"/>
-      <c r="AA2" s="9"/>
-      <c r="AB2" s="9"/>
-      <c r="AC2" s="10"/>
-      <c r="AE2" s="8" t="s">
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="11"/>
+      <c r="AA2" s="11"/>
+      <c r="AB2" s="11"/>
+      <c r="AC2" s="12"/>
+      <c r="AE2" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="AF2" s="9"/>
-      <c r="AG2" s="9"/>
-      <c r="AH2" s="9"/>
-      <c r="AI2" s="9"/>
-      <c r="AJ2" s="10"/>
-      <c r="AL2" s="8" t="s">
+      <c r="AF2" s="11"/>
+      <c r="AG2" s="11"/>
+      <c r="AH2" s="11"/>
+      <c r="AI2" s="11"/>
+      <c r="AJ2" s="12"/>
+      <c r="AL2" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="AM2" s="9"/>
-      <c r="AN2" s="9"/>
-      <c r="AO2" s="9"/>
-      <c r="AP2" s="9"/>
-      <c r="AQ2" s="10"/>
-    </row>
-    <row r="3" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="AM2" s="11"/>
+      <c r="AN2" s="11"/>
+      <c r="AO2" s="11"/>
+      <c r="AP2" s="11"/>
+      <c r="AQ2" s="12"/>
+      <c r="AS2" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="AT2" s="11"/>
+      <c r="AU2" s="11"/>
+      <c r="AV2" s="11"/>
+      <c r="AW2" s="11"/>
+      <c r="AX2" s="12"/>
+    </row>
+    <row r="3" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="G3" s="2"/>
       <c r="I3" s="1"/>
@@ -2001,13 +2024,15 @@
       </c>
       <c r="AJ3" s="2"/>
       <c r="AL3" s="1"/>
-      <c r="AM3" s="11"/>
-      <c r="AN3" s="11"/>
-      <c r="AO3" s="11"/>
-      <c r="AP3" s="11"/>
       <c r="AQ3" s="2"/>
-    </row>
-    <row r="4" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="AS3" s="1"/>
+      <c r="AT3" s="13"/>
+      <c r="AU3" s="13"/>
+      <c r="AV3" s="13"/>
+      <c r="AW3" s="13"/>
+      <c r="AX3" s="2"/>
+    </row>
+    <row r="4" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -2031,13 +2056,17 @@
       <c r="AL4" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="AM4" s="11"/>
-      <c r="AN4" s="11"/>
-      <c r="AO4" s="11"/>
-      <c r="AP4" s="11"/>
       <c r="AQ4" s="2"/>
-    </row>
-    <row r="5" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="AS4" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="AT4" s="13"/>
+      <c r="AU4" s="13"/>
+      <c r="AV4" s="13"/>
+      <c r="AW4" s="13"/>
+      <c r="AX4" s="2"/>
+    </row>
+    <row r="5" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -2060,17 +2089,23 @@
       </c>
       <c r="AJ5" s="2"/>
       <c r="AL5" s="1"/>
-      <c r="AM5" s="12">
+      <c r="AM5" s="8">
         <v>1</v>
       </c>
-      <c r="AN5" s="11"/>
-      <c r="AO5" s="11" t="s">
+      <c r="AO5" t="s">
         <v>153</v>
       </c>
-      <c r="AP5" s="11"/>
       <c r="AQ5" s="2"/>
-    </row>
-    <row r="6" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="AS5" s="1"/>
+      <c r="AT5" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="AU5" s="13"/>
+      <c r="AV5" s="13"/>
+      <c r="AW5" s="13"/>
+      <c r="AX5" s="2"/>
+    </row>
+    <row r="6" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" t="s">
         <v>2</v>
@@ -2096,13 +2131,18 @@
       <c r="AL6" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="AM6" s="12"/>
-      <c r="AN6" s="11"/>
-      <c r="AO6" s="11"/>
-      <c r="AP6" s="11"/>
+      <c r="AM6" s="8"/>
       <c r="AQ6" s="2"/>
-    </row>
-    <row r="7" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="AS6" s="1"/>
+      <c r="AT6" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="AU6" s="13"/>
+      <c r="AV6" s="13"/>
+      <c r="AW6" s="13"/>
+      <c r="AX6" s="2"/>
+    </row>
+    <row r="7" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="D7" t="s">
         <v>11</v>
@@ -2128,15 +2168,20 @@
       </c>
       <c r="AJ7" s="2"/>
       <c r="AL7" s="1"/>
-      <c r="AM7" s="11" t="s">
+      <c r="AM7" t="s">
         <v>155</v>
       </c>
-      <c r="AN7" s="11"/>
-      <c r="AO7" s="11"/>
-      <c r="AP7" s="11"/>
       <c r="AQ7" s="2"/>
-    </row>
-    <row r="8" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="AS7" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AT7" s="13"/>
+      <c r="AU7" s="13"/>
+      <c r="AV7" s="13"/>
+      <c r="AW7" s="13"/>
+      <c r="AX7" s="2"/>
+    </row>
+    <row r="8" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="D8" t="s">
         <v>12</v>
@@ -2160,15 +2205,18 @@
       </c>
       <c r="AJ8" s="2"/>
       <c r="AL8" s="1"/>
-      <c r="AM8" s="11"/>
-      <c r="AN8" s="11" t="s">
+      <c r="AN8" t="s">
         <v>156</v>
       </c>
-      <c r="AO8" s="11"/>
-      <c r="AP8" s="11"/>
       <c r="AQ8" s="2"/>
-    </row>
-    <row r="9" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="AS8" s="5"/>
+      <c r="AT8" s="6"/>
+      <c r="AU8" s="6"/>
+      <c r="AV8" s="6"/>
+      <c r="AW8" s="6"/>
+      <c r="AX8" s="7"/>
+    </row>
+    <row r="9" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="D9" t="s">
         <v>13</v>
@@ -2192,15 +2240,12 @@
       </c>
       <c r="AJ9" s="2"/>
       <c r="AL9" s="1"/>
-      <c r="AM9" s="11"/>
-      <c r="AN9" s="11" t="s">
+      <c r="AN9" t="s">
         <v>157</v>
       </c>
-      <c r="AO9" s="11"/>
-      <c r="AP9" s="11"/>
       <c r="AQ9" s="2"/>
     </row>
-    <row r="10" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" t="s">
         <v>4</v>
@@ -2226,13 +2271,9 @@
       <c r="AL10" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="AM10" s="11"/>
-      <c r="AN10" s="11"/>
-      <c r="AO10" s="11"/>
-      <c r="AP10" s="11"/>
       <c r="AQ10" s="2"/>
     </row>
-    <row r="11" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="D11" t="s">
         <v>5</v>
@@ -2259,13 +2300,9 @@
       <c r="AL11" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="AM11" s="11"/>
-      <c r="AN11" s="11"/>
-      <c r="AO11" s="11"/>
-      <c r="AP11" s="11"/>
       <c r="AQ11" s="2"/>
     </row>
-    <row r="12" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="D12" t="s">
         <v>6</v>
@@ -2293,13 +2330,9 @@
       <c r="AL12" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="AM12" s="11"/>
-      <c r="AN12" s="11"/>
-      <c r="AO12" s="11"/>
-      <c r="AP12" s="11"/>
       <c r="AQ12" s="2"/>
     </row>
-    <row r="13" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" t="s">
         <v>7</v>
@@ -2323,13 +2356,9 @@
       <c r="AL13" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="AM13" s="11"/>
-      <c r="AN13" s="11"/>
-      <c r="AO13" s="11"/>
-      <c r="AP13" s="11"/>
       <c r="AQ13" s="2"/>
     </row>
-    <row r="14" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="D14" t="s">
         <v>8</v>
@@ -2348,16 +2377,12 @@
         <v>134</v>
       </c>
       <c r="AJ14" s="2"/>
-      <c r="AL14" s="13" t="s">
+      <c r="AL14" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="AM14" s="11"/>
-      <c r="AN14" s="11"/>
-      <c r="AO14" s="11"/>
-      <c r="AP14" s="11"/>
       <c r="AQ14" s="2"/>
     </row>
-    <row r="15" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="D15" t="s">
         <v>9</v>
@@ -2378,15 +2403,12 @@
       </c>
       <c r="AJ15" s="2"/>
       <c r="AL15" s="1"/>
-      <c r="AM15" s="11" t="s">
+      <c r="AM15" t="s">
         <v>163</v>
       </c>
-      <c r="AN15" s="11"/>
-      <c r="AO15" s="11"/>
-      <c r="AP15" s="11"/>
       <c r="AQ15" s="2"/>
     </row>
-    <row r="16" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="D16" t="s">
         <v>10</v>
@@ -2407,12 +2429,9 @@
       </c>
       <c r="AJ16" s="2"/>
       <c r="AL16" s="1"/>
-      <c r="AM16" s="11" t="s">
+      <c r="AM16" t="s">
         <v>164</v>
       </c>
-      <c r="AN16" s="11"/>
-      <c r="AO16" s="11"/>
-      <c r="AP16" s="11"/>
       <c r="AQ16" s="2"/>
     </row>
     <row r="17" spans="2:43" x14ac:dyDescent="0.25">
@@ -2436,10 +2455,6 @@
       <c r="AL17" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="AM17" s="11"/>
-      <c r="AN17" s="11"/>
-      <c r="AO17" s="11"/>
-      <c r="AP17" s="11"/>
       <c r="AQ17" s="2"/>
     </row>
     <row r="18" spans="2:43" x14ac:dyDescent="0.25">
@@ -2464,10 +2479,6 @@
       <c r="AL18" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="AM18" s="11"/>
-      <c r="AN18" s="11"/>
-      <c r="AO18" s="11"/>
-      <c r="AP18" s="11"/>
       <c r="AQ18" s="2"/>
     </row>
     <row r="19" spans="2:43" x14ac:dyDescent="0.25">
@@ -2493,10 +2504,6 @@
       <c r="AL19" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="AM19" s="11"/>
-      <c r="AN19" s="11"/>
-      <c r="AO19" s="11"/>
-      <c r="AP19" s="11"/>
       <c r="AQ19" s="2"/>
     </row>
     <row r="20" spans="2:43" x14ac:dyDescent="0.25">
@@ -2714,7 +2721,8 @@
       <c r="AC31" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="AS2:AX2"/>
     <mergeCell ref="AL2:AQ2"/>
     <mergeCell ref="AE2:AJ2"/>
     <mergeCell ref="B2:G2"/>

--- a/Notas.xlsx
+++ b/Notas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Daniel\Desktop\GitHub\Udemy-Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B77F8D-CBB5-4670-896F-DE49BD3AE042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD68FB5F-EA41-455A-B7D6-2F475355C122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{9AA41B25-E233-4297-AEE4-9105559EC584}"/>
   </bookViews>
@@ -177,7 +177,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="192">
   <si>
     <t>Sección 2: Fórmulas 101</t>
   </si>
@@ -1439,13 +1439,139 @@
   </si>
   <si>
     <t>Función RESIDUO</t>
+  </si>
+  <si>
+    <t>Sección 9: Fórmulas matriciales</t>
+  </si>
+  <si>
+    <t>Ctrl + Shift + Enter</t>
+  </si>
+  <si>
+    <t>Constantes matriciales</t>
+  </si>
+  <si>
+    <t>Horizontales</t>
+  </si>
+  <si>
+    <t>Verticales</t>
+  </si>
+  <si>
+    <t>={1,2,3,4} + CSE</t>
+  </si>
+  <si>
+    <t>={1;2;3;4} + CSE</t>
+  </si>
+  <si>
+    <t>Bidimensionales</t>
+  </si>
+  <si>
+    <r>
+      <t>={1,2,3,4</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5,6,7,8} + CSE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">+ En las versiones mas recientes de excel, las fórmulas matriciales ya no requieren el uso del </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C-S-E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">+ Las </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>constantes matriciales</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> no solo pueden estar "llenas" de numeros, también pueden tener texto, valores, formulas, valores logicos etc</t>
+    </r>
+  </si>
+  <si>
+    <t>Nombrar a constantes matriciales</t>
+  </si>
+  <si>
+    <t>Formulas &gt; Asignar nombre</t>
+  </si>
+  <si>
+    <t>Función TRANSPONER</t>
+  </si>
+  <si>
+    <t>Ejemplos de uso de matrices</t>
+  </si>
+  <si>
+    <t>=K.ESIMO.MAYOR( C2:C10, {1;2;3} )</t>
+  </si>
+  <si>
+    <t>=SUMA(LARGO(B2:B10))</t>
+  </si>
+  <si>
+    <t>=MAX(  SI(  (Ciudad=H8)*(Año=I8), C2:C10  )  )</t>
+  </si>
+  <si>
+    <t>Operador "--"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1492,6 +1618,21 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1603,7 +1744,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -1623,7 +1764,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1938,10 +2081,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A0D23AE-AC8A-462F-B95D-7BE995AE01E7}">
-  <dimension ref="B1:AX31"/>
+  <dimension ref="B1:BE31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
-      <selection activeCell="AS2" sqref="AS2:AX2"/>
+    <sheetView tabSelected="1" topLeftCell="AU1" workbookViewId="0">
+      <selection activeCell="BE1" sqref="BE1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1950,8 +2093,8 @@
     <col min="38" max="38" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
@@ -2009,8 +2152,16 @@
       <c r="AV2" s="11"/>
       <c r="AW2" s="11"/>
       <c r="AX2" s="12"/>
-    </row>
-    <row r="3" spans="2:50" x14ac:dyDescent="0.25">
+      <c r="AZ2" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="BA2" s="11"/>
+      <c r="BB2" s="11"/>
+      <c r="BC2" s="11"/>
+      <c r="BD2" s="11"/>
+      <c r="BE2" s="12"/>
+    </row>
+    <row r="3" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="G3" s="2"/>
       <c r="I3" s="1"/>
@@ -2026,13 +2177,15 @@
       <c r="AL3" s="1"/>
       <c r="AQ3" s="2"/>
       <c r="AS3" s="1"/>
-      <c r="AT3" s="13"/>
-      <c r="AU3" s="13"/>
-      <c r="AV3" s="13"/>
-      <c r="AW3" s="13"/>
       <c r="AX3" s="2"/>
-    </row>
-    <row r="4" spans="2:50" x14ac:dyDescent="0.25">
+      <c r="AZ3" s="1"/>
+      <c r="BA3" s="14"/>
+      <c r="BB3" s="14"/>
+      <c r="BC3" s="14"/>
+      <c r="BD3" s="14"/>
+      <c r="BE3" s="2"/>
+    </row>
+    <row r="4" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -2060,13 +2213,17 @@
       <c r="AS4" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="AT4" s="13"/>
-      <c r="AU4" s="13"/>
-      <c r="AV4" s="13"/>
-      <c r="AW4" s="13"/>
       <c r="AX4" s="2"/>
-    </row>
-    <row r="5" spans="2:50" x14ac:dyDescent="0.25">
+      <c r="AZ4" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="BA4" s="14"/>
+      <c r="BB4" s="14"/>
+      <c r="BC4" s="14"/>
+      <c r="BD4" s="14"/>
+      <c r="BE4" s="2"/>
+    </row>
+    <row r="5" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -2097,15 +2254,20 @@
       </c>
       <c r="AQ5" s="2"/>
       <c r="AS5" s="1"/>
-      <c r="AT5" s="13" t="s">
+      <c r="AT5" t="s">
         <v>169</v>
       </c>
-      <c r="AU5" s="13"/>
-      <c r="AV5" s="13"/>
-      <c r="AW5" s="13"/>
       <c r="AX5" s="2"/>
-    </row>
-    <row r="6" spans="2:50" x14ac:dyDescent="0.25">
+      <c r="AZ5" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="BA5" s="14"/>
+      <c r="BB5" s="14"/>
+      <c r="BC5" s="14"/>
+      <c r="BD5" s="14"/>
+      <c r="BE5" s="2"/>
+    </row>
+    <row r="6" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" t="s">
         <v>2</v>
@@ -2134,15 +2296,20 @@
       <c r="AM6" s="8"/>
       <c r="AQ6" s="2"/>
       <c r="AS6" s="1"/>
-      <c r="AT6" s="13" t="s">
+      <c r="AT6" t="s">
         <v>170</v>
       </c>
-      <c r="AU6" s="13"/>
-      <c r="AV6" s="13"/>
-      <c r="AW6" s="13"/>
       <c r="AX6" s="2"/>
-    </row>
-    <row r="7" spans="2:50" x14ac:dyDescent="0.25">
+      <c r="AZ6" s="1"/>
+      <c r="BA6" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="BB6" s="14"/>
+      <c r="BC6" s="14"/>
+      <c r="BD6" s="14"/>
+      <c r="BE6" s="2"/>
+    </row>
+    <row r="7" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="D7" t="s">
         <v>11</v>
@@ -2175,13 +2342,17 @@
       <c r="AS7" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="AT7" s="13"/>
-      <c r="AU7" s="13"/>
-      <c r="AV7" s="13"/>
-      <c r="AW7" s="13"/>
       <c r="AX7" s="2"/>
-    </row>
-    <row r="8" spans="2:50" x14ac:dyDescent="0.25">
+      <c r="AZ7" s="1"/>
+      <c r="BA7" s="14"/>
+      <c r="BB7" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="BC7" s="14"/>
+      <c r="BD7" s="14"/>
+      <c r="BE7" s="2"/>
+    </row>
+    <row r="8" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="D8" t="s">
         <v>12</v>
@@ -2215,8 +2386,16 @@
       <c r="AV8" s="6"/>
       <c r="AW8" s="6"/>
       <c r="AX8" s="7"/>
-    </row>
-    <row r="9" spans="2:50" x14ac:dyDescent="0.25">
+      <c r="AZ8" s="1"/>
+      <c r="BA8" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="BB8" s="14"/>
+      <c r="BC8" s="14"/>
+      <c r="BD8" s="14"/>
+      <c r="BE8" s="2"/>
+    </row>
+    <row r="9" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="D9" t="s">
         <v>13</v>
@@ -2244,8 +2423,16 @@
         <v>157</v>
       </c>
       <c r="AQ9" s="2"/>
-    </row>
-    <row r="10" spans="2:50" x14ac:dyDescent="0.25">
+      <c r="AZ9" s="1"/>
+      <c r="BA9" s="14"/>
+      <c r="BB9" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="BC9" s="14"/>
+      <c r="BD9" s="14"/>
+      <c r="BE9" s="2"/>
+    </row>
+    <row r="10" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" t="s">
         <v>4</v>
@@ -2272,8 +2459,16 @@
         <v>158</v>
       </c>
       <c r="AQ10" s="2"/>
-    </row>
-    <row r="11" spans="2:50" x14ac:dyDescent="0.25">
+      <c r="AZ10" s="1"/>
+      <c r="BA10" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="BB10" s="14"/>
+      <c r="BC10" s="14"/>
+      <c r="BD10" s="14"/>
+      <c r="BE10" s="2"/>
+    </row>
+    <row r="11" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="D11" t="s">
         <v>5</v>
@@ -2301,8 +2496,16 @@
         <v>159</v>
       </c>
       <c r="AQ11" s="2"/>
-    </row>
-    <row r="12" spans="2:50" x14ac:dyDescent="0.25">
+      <c r="AZ11" s="1"/>
+      <c r="BA11" s="14"/>
+      <c r="BB11" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="BC11" s="14"/>
+      <c r="BD11" s="14"/>
+      <c r="BE11" s="2"/>
+    </row>
+    <row r="12" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="D12" t="s">
         <v>6</v>
@@ -2331,8 +2534,16 @@
         <v>160</v>
       </c>
       <c r="AQ12" s="2"/>
-    </row>
-    <row r="13" spans="2:50" x14ac:dyDescent="0.25">
+      <c r="AZ12" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="BA12" s="14"/>
+      <c r="BB12" s="14"/>
+      <c r="BC12" s="14"/>
+      <c r="BD12" s="14"/>
+      <c r="BE12" s="2"/>
+    </row>
+    <row r="13" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" t="s">
         <v>7</v>
@@ -2357,8 +2568,16 @@
         <v>161</v>
       </c>
       <c r="AQ13" s="2"/>
-    </row>
-    <row r="14" spans="2:50" x14ac:dyDescent="0.25">
+      <c r="AZ13" s="1"/>
+      <c r="BA13" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="BB13" s="14"/>
+      <c r="BC13" s="14"/>
+      <c r="BD13" s="14"/>
+      <c r="BE13" s="2"/>
+    </row>
+    <row r="14" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="D14" t="s">
         <v>8</v>
@@ -2381,8 +2600,16 @@
         <v>162</v>
       </c>
       <c r="AQ14" s="2"/>
-    </row>
-    <row r="15" spans="2:50" x14ac:dyDescent="0.25">
+      <c r="AZ14" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="BA14" s="14"/>
+      <c r="BB14" s="14"/>
+      <c r="BC14" s="14"/>
+      <c r="BD14" s="14"/>
+      <c r="BE14" s="2"/>
+    </row>
+    <row r="15" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="D15" t="s">
         <v>9</v>
@@ -2407,8 +2634,16 @@
         <v>163</v>
       </c>
       <c r="AQ15" s="2"/>
-    </row>
-    <row r="16" spans="2:50" x14ac:dyDescent="0.25">
+      <c r="AZ15" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="BA15" s="14"/>
+      <c r="BB15" s="14"/>
+      <c r="BC15" s="14"/>
+      <c r="BD15" s="14"/>
+      <c r="BE15" s="2"/>
+    </row>
+    <row r="16" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="D16" t="s">
         <v>10</v>
@@ -2433,8 +2668,16 @@
         <v>164</v>
       </c>
       <c r="AQ16" s="2"/>
-    </row>
-    <row r="17" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="AZ16" s="1"/>
+      <c r="BA16" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="BB16" s="14"/>
+      <c r="BC16" s="14"/>
+      <c r="BD16" s="14"/>
+      <c r="BE16" s="2"/>
+    </row>
+    <row r="17" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>14</v>
       </c>
@@ -2456,8 +2699,16 @@
         <v>165</v>
       </c>
       <c r="AQ17" s="2"/>
-    </row>
-    <row r="18" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="AZ17" s="1"/>
+      <c r="BA17" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="BB17" s="14"/>
+      <c r="BC17" s="14"/>
+      <c r="BD17" s="14"/>
+      <c r="BE17" s="2"/>
+    </row>
+    <row r="18" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>15</v>
       </c>
@@ -2480,8 +2731,16 @@
         <v>166</v>
       </c>
       <c r="AQ18" s="2"/>
-    </row>
-    <row r="19" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="AZ18" s="1"/>
+      <c r="BA18" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="BB18" s="14"/>
+      <c r="BC18" s="14"/>
+      <c r="BD18" s="14"/>
+      <c r="BE18" s="2"/>
+    </row>
+    <row r="19" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" t="s">
         <v>16</v>
@@ -2505,8 +2764,16 @@
         <v>167</v>
       </c>
       <c r="AQ19" s="2"/>
-    </row>
-    <row r="20" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="AZ19" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="BA19" s="14"/>
+      <c r="BB19" s="14"/>
+      <c r="BC19" s="14"/>
+      <c r="BD19" s="14"/>
+      <c r="BE19" s="2"/>
+    </row>
+    <row r="20" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" t="s">
         <v>19</v>
@@ -2522,7 +2789,7 @@
         <v>108</v>
       </c>
       <c r="AC20" s="2"/>
-      <c r="AE20" s="1" t="s">
+      <c r="AE20" s="13" t="s">
         <v>143</v>
       </c>
       <c r="AJ20" s="2"/>
@@ -2532,8 +2799,14 @@
       <c r="AO20" s="6"/>
       <c r="AP20" s="6"/>
       <c r="AQ20" s="7"/>
-    </row>
-    <row r="21" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="AZ20" s="5"/>
+      <c r="BA20" s="6"/>
+      <c r="BB20" s="6"/>
+      <c r="BC20" s="6"/>
+      <c r="BD20" s="6"/>
+      <c r="BE20" s="7"/>
+    </row>
+    <row r="21" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="D21" t="s">
         <v>18</v>
@@ -2555,7 +2828,7 @@
       <c r="AJ21" s="2"/>
       <c r="AL21" s="4"/>
     </row>
-    <row r="22" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="D22" t="s">
         <v>17</v>
@@ -2577,7 +2850,7 @@
       </c>
       <c r="AJ22" s="2"/>
     </row>
-    <row r="23" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" t="s">
         <v>20</v>
@@ -2597,7 +2870,7 @@
       </c>
       <c r="AJ23" s="2"/>
     </row>
-    <row r="24" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>21</v>
       </c>
@@ -2606,7 +2879,7 @@
         <v>61</v>
       </c>
       <c r="U24" s="2"/>
-      <c r="W24" s="1" t="s">
+      <c r="W24" s="13" t="s">
         <v>116</v>
       </c>
       <c r="AC24" s="2"/>
@@ -2615,7 +2888,7 @@
       </c>
       <c r="AJ24" s="2"/>
     </row>
-    <row r="25" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" t="s">
         <v>22</v>
@@ -2635,7 +2908,7 @@
       </c>
       <c r="AJ25" s="2"/>
     </row>
-    <row r="26" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>23</v>
       </c>
@@ -2656,7 +2929,7 @@
       </c>
       <c r="AJ26" s="2"/>
     </row>
-    <row r="27" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="3" t="s">
         <v>24</v>
@@ -2675,18 +2948,18 @@
       <c r="AI27" s="6"/>
       <c r="AJ27" s="7"/>
     </row>
-    <row r="28" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G28" s="2"/>
-      <c r="W28" s="1" t="s">
+      <c r="W28" s="13" t="s">
         <v>118</v>
       </c>
       <c r="AC28" s="2"/>
     </row>
-    <row r="29" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="3" t="s">
         <v>26</v>
@@ -2698,7 +2971,7 @@
       </c>
       <c r="AC29" s="2"/>
     </row>
-    <row r="30" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B30" s="5"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
@@ -2711,7 +2984,7 @@
       </c>
       <c r="AC30" s="2"/>
     </row>
-    <row r="31" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:57" x14ac:dyDescent="0.25">
       <c r="W31" s="5"/>
       <c r="X31" s="6"/>
       <c r="Y31" s="6"/>
@@ -2721,7 +2994,8 @@
       <c r="AC31" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="AZ2:BE2"/>
     <mergeCell ref="AS2:AX2"/>
     <mergeCell ref="AL2:AQ2"/>
     <mergeCell ref="AE2:AJ2"/>
@@ -2737,10 +3011,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0DF48AC-9952-4727-8CB8-77DFB73B6B59}">
-  <dimension ref="B3:H57"/>
+  <dimension ref="B3:H61"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2955,6 +3229,16 @@
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>142</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B59" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B61" s="3" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>

--- a/Notas.xlsx
+++ b/Notas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Daniel\Desktop\GitHub\Udemy-Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD68FB5F-EA41-455A-B7D6-2F475355C122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB1128FA-5F57-47EA-9B8D-8839769AACD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{9AA41B25-E233-4297-AEE4-9105559EC584}"/>
   </bookViews>
@@ -177,7 +177,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="202">
   <si>
     <t>Sección 2: Fórmulas 101</t>
   </si>
@@ -1565,6 +1565,59 @@
   </si>
   <si>
     <t>Operador "--"</t>
+  </si>
+  <si>
+    <t>Sección 10: Funciones bonus</t>
+  </si>
+  <si>
+    <t>Función INDIRECTO</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">+ La función </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>INDIRECTO()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> devuelve un texto que se encuentra almacenado en una celda, dicha celda es el argumento de la función INDIRECTO</t>
+    </r>
+  </si>
+  <si>
+    <t>C65:C68</t>
+  </si>
+  <si>
+    <t>Suma</t>
+  </si>
+  <si>
+    <t>Mas útil cuando se usa con BUSCARV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Devuelve el valor al que haga referencia una celda (por ejemplo </t>
+  </si>
+  <si>
+    <t>un rango de la forma A1:D5 escrito en dicha celda</t>
+  </si>
+  <si>
+    <t>Función HIPERVINCULO</t>
+  </si>
+  <si>
+    <t>Función SERVICIOWEB</t>
   </si>
 </sst>
 </file>
@@ -1744,7 +1797,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -1755,6 +1808,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1764,9 +1818,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2081,11 +2133,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A0D23AE-AC8A-462F-B95D-7BE995AE01E7}">
-  <dimension ref="B1:BE31"/>
+  <dimension ref="B1:BL31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AU1" workbookViewId="0">
-      <selection activeCell="BE1" sqref="BE1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2093,75 +2143,83 @@
     <col min="38" max="38" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="10" t="s">
+    <row r="1" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="12"/>
-      <c r="I2" s="10" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="13"/>
+      <c r="I2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="12"/>
-      <c r="P2" s="10" t="s">
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="13"/>
+      <c r="P2" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="12"/>
-      <c r="W2" s="10" t="s">
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="13"/>
+      <c r="W2" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="11"/>
-      <c r="AA2" s="11"/>
-      <c r="AB2" s="11"/>
-      <c r="AC2" s="12"/>
-      <c r="AE2" s="10" t="s">
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="12"/>
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="13"/>
+      <c r="AE2" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="AF2" s="11"/>
-      <c r="AG2" s="11"/>
-      <c r="AH2" s="11"/>
-      <c r="AI2" s="11"/>
-      <c r="AJ2" s="12"/>
-      <c r="AL2" s="10" t="s">
+      <c r="AF2" s="12"/>
+      <c r="AG2" s="12"/>
+      <c r="AH2" s="12"/>
+      <c r="AI2" s="12"/>
+      <c r="AJ2" s="13"/>
+      <c r="AL2" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="AM2" s="11"/>
-      <c r="AN2" s="11"/>
-      <c r="AO2" s="11"/>
-      <c r="AP2" s="11"/>
-      <c r="AQ2" s="12"/>
-      <c r="AS2" s="10" t="s">
+      <c r="AM2" s="12"/>
+      <c r="AN2" s="12"/>
+      <c r="AO2" s="12"/>
+      <c r="AP2" s="12"/>
+      <c r="AQ2" s="13"/>
+      <c r="AS2" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="AT2" s="11"/>
-      <c r="AU2" s="11"/>
-      <c r="AV2" s="11"/>
-      <c r="AW2" s="11"/>
-      <c r="AX2" s="12"/>
-      <c r="AZ2" s="10" t="s">
+      <c r="AT2" s="12"/>
+      <c r="AU2" s="12"/>
+      <c r="AV2" s="12"/>
+      <c r="AW2" s="12"/>
+      <c r="AX2" s="13"/>
+      <c r="AZ2" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="BA2" s="11"/>
-      <c r="BB2" s="11"/>
-      <c r="BC2" s="11"/>
-      <c r="BD2" s="11"/>
-      <c r="BE2" s="12"/>
-    </row>
-    <row r="3" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="BA2" s="12"/>
+      <c r="BB2" s="12"/>
+      <c r="BC2" s="12"/>
+      <c r="BD2" s="12"/>
+      <c r="BE2" s="13"/>
+      <c r="BG2" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="BH2" s="12"/>
+      <c r="BI2" s="12"/>
+      <c r="BJ2" s="12"/>
+      <c r="BK2" s="12"/>
+      <c r="BL2" s="13"/>
+    </row>
+    <row r="3" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="G3" s="2"/>
       <c r="I3" s="1"/>
@@ -2179,13 +2237,15 @@
       <c r="AS3" s="1"/>
       <c r="AX3" s="2"/>
       <c r="AZ3" s="1"/>
-      <c r="BA3" s="14"/>
-      <c r="BB3" s="14"/>
-      <c r="BC3" s="14"/>
-      <c r="BD3" s="14"/>
       <c r="BE3" s="2"/>
-    </row>
-    <row r="4" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="BG3" s="1"/>
+      <c r="BH3" s="14"/>
+      <c r="BI3" s="14"/>
+      <c r="BJ3" s="14"/>
+      <c r="BK3" s="14"/>
+      <c r="BL3" s="2"/>
+    </row>
+    <row r="4" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -2217,13 +2277,17 @@
       <c r="AZ4" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="BA4" s="14"/>
-      <c r="BB4" s="14"/>
-      <c r="BC4" s="14"/>
-      <c r="BD4" s="14"/>
       <c r="BE4" s="2"/>
-    </row>
-    <row r="5" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="BG4" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="BH4" s="14"/>
+      <c r="BI4" s="14"/>
+      <c r="BJ4" s="14"/>
+      <c r="BK4" s="14"/>
+      <c r="BL4" s="2"/>
+    </row>
+    <row r="5" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -2261,13 +2325,17 @@
       <c r="AZ5" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="BA5" s="14"/>
-      <c r="BB5" s="14"/>
-      <c r="BC5" s="14"/>
-      <c r="BD5" s="14"/>
       <c r="BE5" s="2"/>
-    </row>
-    <row r="6" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="BG5" s="1"/>
+      <c r="BH5" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="BI5" s="14"/>
+      <c r="BJ5" s="14"/>
+      <c r="BK5" s="14"/>
+      <c r="BL5" s="2"/>
+    </row>
+    <row r="6" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" t="s">
         <v>2</v>
@@ -2301,15 +2369,20 @@
       </c>
       <c r="AX6" s="2"/>
       <c r="AZ6" s="1"/>
-      <c r="BA6" s="14" t="s">
+      <c r="BA6" t="s">
         <v>176</v>
       </c>
-      <c r="BB6" s="14"/>
-      <c r="BC6" s="14"/>
-      <c r="BD6" s="14"/>
       <c r="BE6" s="2"/>
-    </row>
-    <row r="7" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="BG6" s="1"/>
+      <c r="BH6" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="BI6" s="14"/>
+      <c r="BJ6" s="14"/>
+      <c r="BK6" s="14"/>
+      <c r="BL6" s="2"/>
+    </row>
+    <row r="7" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="D7" t="s">
         <v>11</v>
@@ -2344,15 +2417,20 @@
       </c>
       <c r="AX7" s="2"/>
       <c r="AZ7" s="1"/>
-      <c r="BA7" s="14"/>
-      <c r="BB7" s="15" t="s">
+      <c r="BB7" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="BC7" s="14"/>
-      <c r="BD7" s="14"/>
       <c r="BE7" s="2"/>
-    </row>
-    <row r="8" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="BG7" s="1"/>
+      <c r="BH7" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="BI7" s="14"/>
+      <c r="BJ7" s="14"/>
+      <c r="BK7" s="14"/>
+      <c r="BL7" s="2"/>
+    </row>
+    <row r="8" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="D8" t="s">
         <v>12</v>
@@ -2387,15 +2465,20 @@
       <c r="AW8" s="6"/>
       <c r="AX8" s="7"/>
       <c r="AZ8" s="1"/>
-      <c r="BA8" s="14" t="s">
+      <c r="BA8" t="s">
         <v>177</v>
       </c>
-      <c r="BB8" s="14"/>
-      <c r="BC8" s="14"/>
-      <c r="BD8" s="14"/>
       <c r="BE8" s="2"/>
-    </row>
-    <row r="9" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="BG8" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="BH8" s="14"/>
+      <c r="BI8" s="14"/>
+      <c r="BJ8" s="14"/>
+      <c r="BK8" s="14"/>
+      <c r="BL8" s="2"/>
+    </row>
+    <row r="9" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="D9" t="s">
         <v>13</v>
@@ -2424,15 +2507,20 @@
       </c>
       <c r="AQ9" s="2"/>
       <c r="AZ9" s="1"/>
-      <c r="BA9" s="14"/>
-      <c r="BB9" s="15" t="s">
+      <c r="BB9" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="BC9" s="14"/>
-      <c r="BD9" s="14"/>
       <c r="BE9" s="2"/>
-    </row>
-    <row r="10" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="BG9" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="BH9" s="14"/>
+      <c r="BI9" s="14"/>
+      <c r="BJ9" s="14"/>
+      <c r="BK9" s="14"/>
+      <c r="BL9" s="2"/>
+    </row>
+    <row r="10" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" t="s">
         <v>4</v>
@@ -2460,15 +2548,18 @@
       </c>
       <c r="AQ10" s="2"/>
       <c r="AZ10" s="1"/>
-      <c r="BA10" s="14" t="s">
+      <c r="BA10" t="s">
         <v>180</v>
       </c>
-      <c r="BB10" s="14"/>
-      <c r="BC10" s="14"/>
-      <c r="BD10" s="14"/>
       <c r="BE10" s="2"/>
-    </row>
-    <row r="11" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="BG10" s="5"/>
+      <c r="BH10" s="6"/>
+      <c r="BI10" s="6"/>
+      <c r="BJ10" s="6"/>
+      <c r="BK10" s="6"/>
+      <c r="BL10" s="7"/>
+    </row>
+    <row r="11" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="D11" t="s">
         <v>5</v>
@@ -2497,15 +2588,12 @@
       </c>
       <c r="AQ11" s="2"/>
       <c r="AZ11" s="1"/>
-      <c r="BA11" s="14"/>
-      <c r="BB11" s="15" t="s">
+      <c r="BB11" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="BC11" s="14"/>
-      <c r="BD11" s="14"/>
       <c r="BE11" s="2"/>
     </row>
-    <row r="12" spans="2:57" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="D12" t="s">
         <v>6</v>
@@ -2537,13 +2625,9 @@
       <c r="AZ12" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="BA12" s="14"/>
-      <c r="BB12" s="14"/>
-      <c r="BC12" s="14"/>
-      <c r="BD12" s="14"/>
       <c r="BE12" s="2"/>
     </row>
-    <row r="13" spans="2:57" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" t="s">
         <v>7</v>
@@ -2569,15 +2653,12 @@
       </c>
       <c r="AQ13" s="2"/>
       <c r="AZ13" s="1"/>
-      <c r="BA13" s="14" t="s">
+      <c r="BA13" t="s">
         <v>185</v>
       </c>
-      <c r="BB13" s="14"/>
-      <c r="BC13" s="14"/>
-      <c r="BD13" s="14"/>
       <c r="BE13" s="2"/>
     </row>
-    <row r="14" spans="2:57" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="D14" t="s">
         <v>8</v>
@@ -2603,13 +2684,9 @@
       <c r="AZ14" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="BA14" s="14"/>
-      <c r="BB14" s="14"/>
-      <c r="BC14" s="14"/>
-      <c r="BD14" s="14"/>
       <c r="BE14" s="2"/>
     </row>
-    <row r="15" spans="2:57" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="D15" t="s">
         <v>9</v>
@@ -2637,13 +2714,9 @@
       <c r="AZ15" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="BA15" s="14"/>
-      <c r="BB15" s="14"/>
-      <c r="BC15" s="14"/>
-      <c r="BD15" s="14"/>
       <c r="BE15" s="2"/>
     </row>
-    <row r="16" spans="2:57" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="D16" t="s">
         <v>10</v>
@@ -2669,12 +2742,9 @@
       </c>
       <c r="AQ16" s="2"/>
       <c r="AZ16" s="1"/>
-      <c r="BA16" s="15" t="s">
+      <c r="BA16" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="BB16" s="14"/>
-      <c r="BC16" s="14"/>
-      <c r="BD16" s="14"/>
       <c r="BE16" s="2"/>
     </row>
     <row r="17" spans="2:57" x14ac:dyDescent="0.25">
@@ -2700,12 +2770,9 @@
       </c>
       <c r="AQ17" s="2"/>
       <c r="AZ17" s="1"/>
-      <c r="BA17" s="15" t="s">
+      <c r="BA17" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="BB17" s="14"/>
-      <c r="BC17" s="14"/>
-      <c r="BD17" s="14"/>
       <c r="BE17" s="2"/>
     </row>
     <row r="18" spans="2:57" x14ac:dyDescent="0.25">
@@ -2732,12 +2799,9 @@
       </c>
       <c r="AQ18" s="2"/>
       <c r="AZ18" s="1"/>
-      <c r="BA18" s="15" t="s">
+      <c r="BA18" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="BB18" s="14"/>
-      <c r="BC18" s="14"/>
-      <c r="BD18" s="14"/>
       <c r="BE18" s="2"/>
     </row>
     <row r="19" spans="2:57" x14ac:dyDescent="0.25">
@@ -2767,10 +2831,6 @@
       <c r="AZ19" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="BA19" s="14"/>
-      <c r="BB19" s="14"/>
-      <c r="BC19" s="14"/>
-      <c r="BD19" s="14"/>
       <c r="BE19" s="2"/>
     </row>
     <row r="20" spans="2:57" x14ac:dyDescent="0.25">
@@ -2789,7 +2849,7 @@
         <v>108</v>
       </c>
       <c r="AC20" s="2"/>
-      <c r="AE20" s="13" t="s">
+      <c r="AE20" s="10" t="s">
         <v>143</v>
       </c>
       <c r="AJ20" s="2"/>
@@ -2879,7 +2939,7 @@
         <v>61</v>
       </c>
       <c r="U24" s="2"/>
-      <c r="W24" s="13" t="s">
+      <c r="W24" s="10" t="s">
         <v>116</v>
       </c>
       <c r="AC24" s="2"/>
@@ -2954,7 +3014,7 @@
         <v>25</v>
       </c>
       <c r="G28" s="2"/>
-      <c r="W28" s="13" t="s">
+      <c r="W28" s="10" t="s">
         <v>118</v>
       </c>
       <c r="AC28" s="2"/>
@@ -2994,7 +3054,8 @@
       <c r="AC31" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="BG2:BL2"/>
     <mergeCell ref="AZ2:BE2"/>
     <mergeCell ref="AS2:AX2"/>
     <mergeCell ref="AL2:AQ2"/>
@@ -3011,10 +3072,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0DF48AC-9952-4727-8CB8-77DFB73B6B59}">
-  <dimension ref="B3:H61"/>
+  <dimension ref="B3:H67"/>
   <sheetViews>
     <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+      <selection activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3239,6 +3300,36 @@
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B61" s="3" t="s">
         <v>183</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B63" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="65" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C65">
+        <v>10</v>
+      </c>
+      <c r="E65" t="s">
+        <v>195</v>
+      </c>
+      <c r="G65" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="66" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C66">
+        <v>20</v>
+      </c>
+      <c r="G66">
+        <f ca="1">SUM(INDIRECT(E65))</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="67" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C67">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Notas.xlsx
+++ b/Notas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Daniel\Desktop\GitHub\Udemy-Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB1128FA-5F57-47EA-9B8D-8839769AACD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE2DFE8-8469-409C-B4EB-A4C141E2CE9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{9AA41B25-E233-4297-AEE4-9105559EC584}"/>
   </bookViews>
@@ -1797,7 +1797,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -1818,7 +1818,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2135,7 +2134,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A0D23AE-AC8A-462F-B95D-7BE995AE01E7}">
   <dimension ref="B1:BL31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2239,10 +2238,6 @@
       <c r="AZ3" s="1"/>
       <c r="BE3" s="2"/>
       <c r="BG3" s="1"/>
-      <c r="BH3" s="14"/>
-      <c r="BI3" s="14"/>
-      <c r="BJ3" s="14"/>
-      <c r="BK3" s="14"/>
       <c r="BL3" s="2"/>
     </row>
     <row r="4" spans="2:64" x14ac:dyDescent="0.25">
@@ -2281,10 +2276,6 @@
       <c r="BG4" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="BH4" s="14"/>
-      <c r="BI4" s="14"/>
-      <c r="BJ4" s="14"/>
-      <c r="BK4" s="14"/>
       <c r="BL4" s="2"/>
     </row>
     <row r="5" spans="2:64" x14ac:dyDescent="0.25">
@@ -2327,12 +2318,9 @@
       </c>
       <c r="BE5" s="2"/>
       <c r="BG5" s="1"/>
-      <c r="BH5" s="14" t="s">
+      <c r="BH5" t="s">
         <v>198</v>
       </c>
-      <c r="BI5" s="14"/>
-      <c r="BJ5" s="14"/>
-      <c r="BK5" s="14"/>
       <c r="BL5" s="2"/>
     </row>
     <row r="6" spans="2:64" x14ac:dyDescent="0.25">
@@ -2374,12 +2362,9 @@
       </c>
       <c r="BE6" s="2"/>
       <c r="BG6" s="1"/>
-      <c r="BH6" s="14" t="s">
+      <c r="BH6" t="s">
         <v>199</v>
       </c>
-      <c r="BI6" s="14"/>
-      <c r="BJ6" s="14"/>
-      <c r="BK6" s="14"/>
       <c r="BL6" s="2"/>
     </row>
     <row r="7" spans="2:64" x14ac:dyDescent="0.25">
@@ -2422,12 +2407,9 @@
       </c>
       <c r="BE7" s="2"/>
       <c r="BG7" s="1"/>
-      <c r="BH7" s="14" t="s">
+      <c r="BH7" t="s">
         <v>197</v>
       </c>
-      <c r="BI7" s="14"/>
-      <c r="BJ7" s="14"/>
-      <c r="BK7" s="14"/>
       <c r="BL7" s="2"/>
     </row>
     <row r="8" spans="2:64" x14ac:dyDescent="0.25">
@@ -2472,10 +2454,6 @@
       <c r="BG8" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="BH8" s="14"/>
-      <c r="BI8" s="14"/>
-      <c r="BJ8" s="14"/>
-      <c r="BK8" s="14"/>
       <c r="BL8" s="2"/>
     </row>
     <row r="9" spans="2:64" x14ac:dyDescent="0.25">
@@ -2514,10 +2492,6 @@
       <c r="BG9" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="BH9" s="14"/>
-      <c r="BI9" s="14"/>
-      <c r="BJ9" s="14"/>
-      <c r="BK9" s="14"/>
       <c r="BL9" s="2"/>
     </row>
     <row r="10" spans="2:64" x14ac:dyDescent="0.25">
@@ -3055,15 +3029,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="P2:U2"/>
+    <mergeCell ref="W2:AC2"/>
     <mergeCell ref="BG2:BL2"/>
     <mergeCell ref="AZ2:BE2"/>
     <mergeCell ref="AS2:AX2"/>
     <mergeCell ref="AL2:AQ2"/>
     <mergeCell ref="AE2:AJ2"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="P2:U2"/>
-    <mergeCell ref="W2:AC2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/Notas.xlsx
+++ b/Notas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Daniel\Desktop\GitHub\Udemy-Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE2DFE8-8469-409C-B4EB-A4C141E2CE9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CBEF905-1521-482F-8F52-C4478842B75E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{9AA41B25-E233-4297-AEE4-9105559EC584}"/>
   </bookViews>
@@ -114,6 +114,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="P14" authorId="0" shapeId="0" xr:uid="{416C2436-24B3-4F3A-886A-B52924D64D32}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Carlos Daniel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Cuenta el número de celdas que cumplan la condición dada</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="AE23" authorId="0" shapeId="0" xr:uid="{49255402-6D41-4859-8185-77EEEC0A8F73}">
       <text>
         <r>
@@ -1624,7 +1648,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1676,6 +1703,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -1683,12 +1711,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1794,10 +1834,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -1808,7 +1849,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1818,8 +1858,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2139,84 +2182,85 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="13"/>
-      <c r="I2" s="11" t="s">
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="12"/>
+      <c r="I2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="13"/>
-      <c r="P2" s="11" t="s">
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="12"/>
+      <c r="P2" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="13"/>
-      <c r="W2" s="11" t="s">
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="12"/>
+      <c r="W2" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="12"/>
-      <c r="AB2" s="12"/>
-      <c r="AC2" s="13"/>
-      <c r="AE2" s="11" t="s">
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="11"/>
+      <c r="AA2" s="11"/>
+      <c r="AB2" s="11"/>
+      <c r="AC2" s="12"/>
+      <c r="AE2" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="AF2" s="12"/>
-      <c r="AG2" s="12"/>
-      <c r="AH2" s="12"/>
-      <c r="AI2" s="12"/>
-      <c r="AJ2" s="13"/>
-      <c r="AL2" s="11" t="s">
+      <c r="AF2" s="11"/>
+      <c r="AG2" s="11"/>
+      <c r="AH2" s="11"/>
+      <c r="AI2" s="11"/>
+      <c r="AJ2" s="12"/>
+      <c r="AL2" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="AM2" s="12"/>
-      <c r="AN2" s="12"/>
-      <c r="AO2" s="12"/>
-      <c r="AP2" s="12"/>
-      <c r="AQ2" s="13"/>
-      <c r="AS2" s="11" t="s">
+      <c r="AM2" s="11"/>
+      <c r="AN2" s="11"/>
+      <c r="AO2" s="11"/>
+      <c r="AP2" s="11"/>
+      <c r="AQ2" s="12"/>
+      <c r="AS2" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="AT2" s="12"/>
-      <c r="AU2" s="12"/>
-      <c r="AV2" s="12"/>
-      <c r="AW2" s="12"/>
-      <c r="AX2" s="13"/>
-      <c r="AZ2" s="11" t="s">
+      <c r="AT2" s="11"/>
+      <c r="AU2" s="11"/>
+      <c r="AV2" s="11"/>
+      <c r="AW2" s="11"/>
+      <c r="AX2" s="12"/>
+      <c r="AZ2" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="BA2" s="12"/>
-      <c r="BB2" s="12"/>
-      <c r="BC2" s="12"/>
-      <c r="BD2" s="12"/>
-      <c r="BE2" s="13"/>
-      <c r="BG2" s="11" t="s">
+      <c r="BA2" s="11"/>
+      <c r="BB2" s="11"/>
+      <c r="BC2" s="11"/>
+      <c r="BD2" s="11"/>
+      <c r="BE2" s="12"/>
+      <c r="BG2" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="BH2" s="12"/>
-      <c r="BI2" s="12"/>
-      <c r="BJ2" s="12"/>
-      <c r="BK2" s="12"/>
-      <c r="BL2" s="13"/>
+      <c r="BH2" s="11"/>
+      <c r="BI2" s="11"/>
+      <c r="BJ2" s="11"/>
+      <c r="BK2" s="11"/>
+      <c r="BL2" s="12"/>
     </row>
     <row r="3" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
@@ -2685,6 +2729,7 @@
         <v>163</v>
       </c>
       <c r="AQ15" s="2"/>
+      <c r="AR15" s="8"/>
       <c r="AZ15" s="1" t="s">
         <v>187</v>
       </c>
@@ -2743,6 +2788,7 @@
         <v>165</v>
       </c>
       <c r="AQ17" s="2"/>
+      <c r="AR17" s="14"/>
       <c r="AZ17" s="1"/>
       <c r="BA17" s="3" t="s">
         <v>189</v>
@@ -2823,7 +2869,7 @@
         <v>108</v>
       </c>
       <c r="AC20" s="2"/>
-      <c r="AE20" s="10" t="s">
+      <c r="AE20" s="13" t="s">
         <v>143</v>
       </c>
       <c r="AJ20" s="2"/>
@@ -2913,7 +2959,7 @@
         <v>61</v>
       </c>
       <c r="U24" s="2"/>
-      <c r="W24" s="10" t="s">
+      <c r="W24" s="13" t="s">
         <v>116</v>
       </c>
       <c r="AC24" s="2"/>
@@ -2988,7 +3034,7 @@
         <v>25</v>
       </c>
       <c r="G28" s="2"/>
-      <c r="W28" s="10" t="s">
+      <c r="W28" s="13" t="s">
         <v>118</v>
       </c>
       <c r="AC28" s="2"/>

--- a/Notas.xlsx
+++ b/Notas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Daniel\Desktop\GitHub\Udemy-Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CBEF905-1521-482F-8F52-C4478842B75E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42F48F34-4BCA-4665-9066-EF985C2ECB60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{9AA41B25-E233-4297-AEE4-9105559EC584}"/>
   </bookViews>
@@ -122,7 +122,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Carlos Daniel:</t>
         </r>
@@ -131,7 +131,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Cuenta el número de celdas que cumplan la condición dada</t>
@@ -1651,7 +1651,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1716,19 +1716,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1838,7 +1825,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -1849,6 +1836,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1858,8 +1846,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -2188,79 +2174,79 @@
   <sheetData>
     <row r="1" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="12"/>
-      <c r="I2" s="10" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="13"/>
+      <c r="I2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="12"/>
-      <c r="P2" s="10" t="s">
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="13"/>
+      <c r="P2" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="12"/>
-      <c r="W2" s="10" t="s">
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="13"/>
+      <c r="W2" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="11"/>
-      <c r="AA2" s="11"/>
-      <c r="AB2" s="11"/>
-      <c r="AC2" s="12"/>
-      <c r="AE2" s="10" t="s">
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="12"/>
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="13"/>
+      <c r="AE2" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="AF2" s="11"/>
-      <c r="AG2" s="11"/>
-      <c r="AH2" s="11"/>
-      <c r="AI2" s="11"/>
-      <c r="AJ2" s="12"/>
-      <c r="AL2" s="10" t="s">
+      <c r="AF2" s="12"/>
+      <c r="AG2" s="12"/>
+      <c r="AH2" s="12"/>
+      <c r="AI2" s="12"/>
+      <c r="AJ2" s="13"/>
+      <c r="AL2" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="AM2" s="11"/>
-      <c r="AN2" s="11"/>
-      <c r="AO2" s="11"/>
-      <c r="AP2" s="11"/>
-      <c r="AQ2" s="12"/>
-      <c r="AS2" s="10" t="s">
+      <c r="AM2" s="12"/>
+      <c r="AN2" s="12"/>
+      <c r="AO2" s="12"/>
+      <c r="AP2" s="12"/>
+      <c r="AQ2" s="13"/>
+      <c r="AS2" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="AT2" s="11"/>
-      <c r="AU2" s="11"/>
-      <c r="AV2" s="11"/>
-      <c r="AW2" s="11"/>
-      <c r="AX2" s="12"/>
-      <c r="AZ2" s="10" t="s">
+      <c r="AT2" s="12"/>
+      <c r="AU2" s="12"/>
+      <c r="AV2" s="12"/>
+      <c r="AW2" s="12"/>
+      <c r="AX2" s="13"/>
+      <c r="AZ2" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="BA2" s="11"/>
-      <c r="BB2" s="11"/>
-      <c r="BC2" s="11"/>
-      <c r="BD2" s="11"/>
-      <c r="BE2" s="12"/>
-      <c r="BG2" s="10" t="s">
+      <c r="BA2" s="12"/>
+      <c r="BB2" s="12"/>
+      <c r="BC2" s="12"/>
+      <c r="BD2" s="12"/>
+      <c r="BE2" s="13"/>
+      <c r="BG2" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="BH2" s="11"/>
-      <c r="BI2" s="11"/>
-      <c r="BJ2" s="11"/>
-      <c r="BK2" s="11"/>
-      <c r="BL2" s="12"/>
+      <c r="BH2" s="12"/>
+      <c r="BI2" s="12"/>
+      <c r="BJ2" s="12"/>
+      <c r="BK2" s="12"/>
+      <c r="BL2" s="13"/>
     </row>
     <row r="3" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
@@ -2788,7 +2774,7 @@
         <v>165</v>
       </c>
       <c r="AQ17" s="2"/>
-      <c r="AR17" s="14"/>
+      <c r="AR17" s="10"/>
       <c r="AZ17" s="1"/>
       <c r="BA17" s="3" t="s">
         <v>189</v>
@@ -2869,7 +2855,7 @@
         <v>108</v>
       </c>
       <c r="AC20" s="2"/>
-      <c r="AE20" s="13" t="s">
+      <c r="AE20" s="1" t="s">
         <v>143</v>
       </c>
       <c r="AJ20" s="2"/>
@@ -2959,7 +2945,7 @@
         <v>61</v>
       </c>
       <c r="U24" s="2"/>
-      <c r="W24" s="13" t="s">
+      <c r="W24" s="1" t="s">
         <v>116</v>
       </c>
       <c r="AC24" s="2"/>
@@ -3034,7 +3020,7 @@
         <v>25</v>
       </c>
       <c r="G28" s="2"/>
-      <c r="W28" s="13" t="s">
+      <c r="W28" s="1" t="s">
         <v>118</v>
       </c>
       <c r="AC28" s="2"/>
@@ -3094,9 +3080,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0DF48AC-9952-4727-8CB8-77DFB73B6B59}">
   <dimension ref="B3:H67"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="G67" sqref="G67"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>

--- a/Notas.xlsx
+++ b/Notas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Daniel\Desktop\GitHub\Udemy-Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42F48F34-4BCA-4665-9066-EF985C2ECB60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D53CEB4A-F499-433D-8B72-357ACEFC71B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{9AA41B25-E233-4297-AEE4-9105559EC584}"/>
   </bookViews>
@@ -201,7 +201,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="203">
   <si>
     <t>Sección 2: Fórmulas 101</t>
   </si>
@@ -1642,6 +1642,9 @@
   </si>
   <si>
     <t>Función SERVICIOWEB</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -2161,7 +2164,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A0D23AE-AC8A-462F-B95D-7BE995AE01E7}">
-  <dimension ref="B1:BL31"/>
+  <dimension ref="B1:BN31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2172,8 +2175,24 @@
     <col min="38" max="38" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>202</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>202</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2" spans="2:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
@@ -2248,7 +2267,7 @@
       <c r="BK2" s="12"/>
       <c r="BL2" s="13"/>
     </row>
-    <row r="3" spans="2:64" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="G3" s="2"/>
       <c r="I3" s="1"/>
@@ -2270,7 +2289,7 @@
       <c r="BG3" s="1"/>
       <c r="BL3" s="2"/>
     </row>
-    <row r="4" spans="2:64" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -2308,7 +2327,7 @@
       </c>
       <c r="BL4" s="2"/>
     </row>
-    <row r="5" spans="2:64" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -2353,7 +2372,7 @@
       </c>
       <c r="BL5" s="2"/>
     </row>
-    <row r="6" spans="2:64" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" t="s">
         <v>2</v>
@@ -2397,7 +2416,7 @@
       </c>
       <c r="BL6" s="2"/>
     </row>
-    <row r="7" spans="2:64" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="D7" t="s">
         <v>11</v>
@@ -2442,7 +2461,7 @@
       </c>
       <c r="BL7" s="2"/>
     </row>
-    <row r="8" spans="2:64" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="D8" t="s">
         <v>12</v>
@@ -2486,7 +2505,7 @@
       </c>
       <c r="BL8" s="2"/>
     </row>
-    <row r="9" spans="2:64" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="D9" t="s">
         <v>13</v>
@@ -2524,7 +2543,7 @@
       </c>
       <c r="BL9" s="2"/>
     </row>
-    <row r="10" spans="2:64" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" t="s">
         <v>4</v>
@@ -2563,7 +2582,7 @@
       <c r="BK10" s="6"/>
       <c r="BL10" s="7"/>
     </row>
-    <row r="11" spans="2:64" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="D11" t="s">
         <v>5</v>
@@ -2597,7 +2616,7 @@
       </c>
       <c r="BE11" s="2"/>
     </row>
-    <row r="12" spans="2:64" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="D12" t="s">
         <v>6</v>
@@ -2631,7 +2650,7 @@
       </c>
       <c r="BE12" s="2"/>
     </row>
-    <row r="13" spans="2:64" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" t="s">
         <v>7</v>
@@ -2662,7 +2681,7 @@
       </c>
       <c r="BE13" s="2"/>
     </row>
-    <row r="14" spans="2:64" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="D14" t="s">
         <v>8</v>
@@ -2690,7 +2709,7 @@
       </c>
       <c r="BE14" s="2"/>
     </row>
-    <row r="15" spans="2:64" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="D15" t="s">
         <v>9</v>
@@ -2721,7 +2740,7 @@
       </c>
       <c r="BE15" s="2"/>
     </row>
-    <row r="16" spans="2:64" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="D16" t="s">
         <v>10</v>

--- a/Notas.xlsx
+++ b/Notas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Daniel\Desktop\GitHub\Udemy-Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D53CEB4A-F499-433D-8B72-357ACEFC71B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A9C4077-E028-448A-B66D-60CDFB820D10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{9AA41B25-E233-4297-AEE4-9105559EC584}"/>
   </bookViews>
@@ -201,7 +201,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="203">
   <si>
     <t>Sección 2: Fórmulas 101</t>
   </si>
@@ -2166,7 +2166,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A0D23AE-AC8A-462F-B95D-7BE995AE01E7}">
   <dimension ref="B1:BN31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AD3" sqref="AD3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2226,6 +2228,9 @@
       <c r="AA2" s="12"/>
       <c r="AB2" s="12"/>
       <c r="AC2" s="13"/>
+      <c r="AD2" t="s">
+        <v>202</v>
+      </c>
       <c r="AE2" s="11" t="s">
         <v>123</v>
       </c>
@@ -2242,6 +2247,9 @@
       <c r="AO2" s="12"/>
       <c r="AP2" s="12"/>
       <c r="AQ2" s="13"/>
+      <c r="AR2" t="s">
+        <v>202</v>
+      </c>
       <c r="AS2" s="11" t="s">
         <v>171</v>
       </c>
